--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Nov-2025/جدول التجمع يوم 24-11-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Nov-2025/جدول التجمع يوم 24-11-2025.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="777">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -1870,469 +1870,478 @@
     <t>منيبة كرار</t>
   </si>
   <si>
+    <t>فياض حمدي</t>
+  </si>
+  <si>
+    <t>فراس بن أسامة</t>
+  </si>
+  <si>
+    <t>محمود البنداري</t>
+  </si>
+  <si>
+    <t>من 11 م</t>
+  </si>
+  <si>
+    <t>عمرو خالد</t>
+  </si>
+  <si>
+    <t>Has a car</t>
+  </si>
+  <si>
+    <t>عمر الفاتح</t>
+  </si>
+  <si>
+    <t>Walmart Training</t>
+  </si>
+  <si>
+    <t>يوسف غرانت</t>
+  </si>
+  <si>
+    <t>1069935066 / 1282029756</t>
+  </si>
+  <si>
+    <t>نور هشام</t>
+  </si>
+  <si>
+    <t>أسيل سامي</t>
+  </si>
+  <si>
+    <t>عبد المنعم عبد الرحمن</t>
+  </si>
+  <si>
+    <t>عمر عادل</t>
+  </si>
+  <si>
+    <t>Estance John (استانس جون)</t>
+  </si>
+  <si>
+    <t>لوجينا أحمد كامل</t>
+  </si>
+  <si>
+    <t>1034404158/ 1032464427</t>
+  </si>
+  <si>
+    <t>دولت أمير</t>
+  </si>
+  <si>
+    <t>الطالبية</t>
+  </si>
+  <si>
+    <t>احمد عوض</t>
+  </si>
+  <si>
+    <t>الجزيره</t>
+  </si>
+  <si>
+    <t>فايزة خالد</t>
+  </si>
+  <si>
+    <t>محمد مصطفى</t>
+  </si>
+  <si>
+    <t>سيف الشامي</t>
+  </si>
+  <si>
+    <t>امين عبد الحي</t>
+  </si>
+  <si>
+    <t>محمود عبد العليم</t>
+  </si>
+  <si>
+    <t>هبة الله نوفل</t>
+  </si>
+  <si>
+    <t>أماني الله شيراني</t>
+  </si>
+  <si>
+    <t>محمد المصطفى هاشم</t>
+  </si>
+  <si>
+    <t>عبدالوهاب مالك</t>
+  </si>
+  <si>
+    <t>هبة عثمان أحمد الطاهر</t>
+  </si>
+  <si>
+    <t>1556802729/249966553605</t>
+  </si>
+  <si>
+    <t>محمد نادر عوض</t>
+  </si>
+  <si>
+    <t>مصطفى محمد</t>
+  </si>
+  <si>
+    <t>كشك اللحمه</t>
+  </si>
+  <si>
+    <t>1559986500/249119446025</t>
+  </si>
+  <si>
+    <t>رائد ياسر</t>
+  </si>
+  <si>
+    <t>1500837996/249929419400</t>
+  </si>
+  <si>
+    <t>احمد عبد العظيم</t>
+  </si>
+  <si>
+    <t>سلمان معتز</t>
+  </si>
+  <si>
+    <t>محمد احمد اسماعيل</t>
+  </si>
+  <si>
+    <t>ابو العور</t>
+  </si>
+  <si>
+    <t>1121009457 // 249964844267 WPP</t>
+  </si>
+  <si>
+    <t>عفراء حاتم</t>
+  </si>
+  <si>
+    <t>يحيى لطفي</t>
+  </si>
+  <si>
+    <t>إسراء سامي</t>
+  </si>
+  <si>
+    <t>سهيلة عاطف</t>
+  </si>
+  <si>
+    <t>ليلى حمدي</t>
+  </si>
+  <si>
+    <t>مهيار حافظ عباس</t>
+  </si>
+  <si>
+    <t>مصطفى حازم</t>
+  </si>
+  <si>
+    <t>أندرو عادل إسحاق</t>
+  </si>
+  <si>
+    <t>حسام محمد نبيل حمدي</t>
+  </si>
+  <si>
+    <t>لوكا اميل</t>
+  </si>
+  <si>
+    <t>أمل نبيل</t>
+  </si>
+  <si>
+    <t>فايزة كمال</t>
+  </si>
+  <si>
+    <t>عبد الله جمال</t>
+  </si>
+  <si>
+    <t>إيمانويل بوث</t>
+  </si>
+  <si>
+    <t>عمر مهدي</t>
+  </si>
+  <si>
+    <t>ملاك انطون مهنا</t>
+  </si>
+  <si>
+    <t>جاسم أسامة</t>
+  </si>
+  <si>
+    <t>حبيبة خالد</t>
+  </si>
+  <si>
+    <t>محمد ابوبكر</t>
+  </si>
+  <si>
+    <t>خان ستيف</t>
+  </si>
+  <si>
+    <t>عبدالله طارق</t>
+  </si>
+  <si>
+    <t>احمد شبل</t>
+  </si>
+  <si>
+    <t>حبيبة جعفر</t>
+  </si>
+  <si>
+    <t>حمدي مصطفى محمد وائل أبو المعاطي</t>
+  </si>
+  <si>
+    <t>عمار ياسر</t>
+  </si>
+  <si>
+    <t>مريم السماك</t>
+  </si>
+  <si>
+    <t>مازن اشرف</t>
+  </si>
+  <si>
+    <t>عبد الرؤوف محمود</t>
+  </si>
+  <si>
+    <t>1108394758 / 1066438917</t>
+  </si>
+  <si>
+    <t>يوسف وليد</t>
+  </si>
+  <si>
+    <t>مازن الباجوري</t>
+  </si>
+  <si>
+    <t>1044637937/1108373366</t>
+  </si>
+  <si>
+    <t>محمد البدري بابكر</t>
+  </si>
+  <si>
+    <t>بوابه 24</t>
+  </si>
+  <si>
+    <t>مراد مصطفى كمال</t>
+  </si>
+  <si>
+    <t>مصطفى مدحت</t>
+  </si>
+  <si>
+    <t>حسام الدين وليد مصطفى</t>
+  </si>
+  <si>
+    <t>عبد الرحمن زين</t>
+  </si>
+  <si>
+    <t>1505229817 WPP only</t>
+  </si>
+  <si>
+    <t>براء محمد</t>
+  </si>
+  <si>
+    <t>أحمد مصطفى كامل</t>
+  </si>
+  <si>
+    <t>ضحى عامر</t>
+  </si>
+  <si>
+    <t>سعيد الليثي</t>
+  </si>
+  <si>
+    <t>الحي العاشر</t>
+  </si>
+  <si>
+    <t>ياسين صبري</t>
+  </si>
+  <si>
+    <t>1273412666/249969118005</t>
+  </si>
+  <si>
+    <t>باسل معتز</t>
+  </si>
+  <si>
+    <t>1225392073 / 1550558440</t>
+  </si>
+  <si>
+    <t>يوسف طاهر</t>
+  </si>
+  <si>
+    <t>عمرو تامر</t>
+  </si>
+  <si>
+    <t>محمد علاء</t>
+  </si>
+  <si>
+    <t>1557655853 / 249965691878</t>
+  </si>
+  <si>
+    <t>عبد المنعم خالد</t>
+  </si>
+  <si>
+    <t>ندى أحمد جاسم</t>
+  </si>
+  <si>
+    <t>آية محمد الصديق</t>
+  </si>
+  <si>
+    <t>دانيا ياسر</t>
+  </si>
+  <si>
+    <t>1128109338_00249901091101</t>
+  </si>
+  <si>
+    <t>كريم الدين امير صلاح</t>
+  </si>
+  <si>
+    <t>مدثر أسامة</t>
+  </si>
+  <si>
+    <t>إسراء مهدي</t>
+  </si>
+  <si>
+    <t>عمر عبدالله</t>
+  </si>
+  <si>
+    <t>249122099066/1551258200</t>
+  </si>
+  <si>
+    <t>عثمان نورالدين</t>
+  </si>
+  <si>
+    <t>سيف وائل</t>
+  </si>
+  <si>
+    <t>إياد خيري</t>
+  </si>
+  <si>
+    <t>ألوك مايوم</t>
+  </si>
+  <si>
+    <t>ماسة عصام</t>
+  </si>
+  <si>
+    <t>عبدالله غاندي عبدالله النويري</t>
+  </si>
+  <si>
+    <t>شهد محمود</t>
+  </si>
+  <si>
+    <t>تيموثي مودي</t>
+  </si>
+  <si>
+    <t>بسنت أحمد سمير</t>
+  </si>
+  <si>
+    <t>هادية وحيد</t>
+  </si>
+  <si>
+    <t>باسل هشام</t>
+  </si>
+  <si>
+    <t>يارا ايهاب</t>
+  </si>
+  <si>
+    <t>هدى عز</t>
+  </si>
+  <si>
+    <t>امجد احمد</t>
+  </si>
+  <si>
+    <t>أحمد محمد سمير محمد</t>
+  </si>
+  <si>
+    <t>وليام جلادا</t>
+  </si>
+  <si>
+    <t>الاء ابراهيم عبد العزيز محمد</t>
+  </si>
+  <si>
+    <t>هادي عادل</t>
+  </si>
+  <si>
+    <t>ديفيد مايكل</t>
+  </si>
+  <si>
+    <t>احمد داوود</t>
+  </si>
+  <si>
+    <t>ندى سعد</t>
+  </si>
+  <si>
+    <t>احمد المنياوي</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>مؤمن صلاح</t>
+  </si>
+  <si>
+    <t>1507944711 WP / 1553516466</t>
+  </si>
+  <si>
+    <t>امنية كمال</t>
+  </si>
+  <si>
+    <t>محمود حسن</t>
+  </si>
+  <si>
+    <t>ابراهيم محمود</t>
+  </si>
+  <si>
+    <t>ياسين عمرو</t>
+  </si>
+  <si>
+    <t>محمود عاطف</t>
+  </si>
+  <si>
+    <t>مصطفى عبد الباسط</t>
+  </si>
+  <si>
+    <t>بال جون</t>
+  </si>
+  <si>
+    <t>جودي موسى</t>
+  </si>
+  <si>
+    <t>1024194988  / 1224030197</t>
+  </si>
+  <si>
+    <t>محمد ابراهيم</t>
+  </si>
+  <si>
+    <t>رنا شمس الدين</t>
+  </si>
+  <si>
+    <t>محمد أيمن</t>
+  </si>
+  <si>
+    <t>نور الدين محمود</t>
+  </si>
+  <si>
+    <t>حازم حسام</t>
+  </si>
+  <si>
+    <t>إياد ياسر</t>
+  </si>
+  <si>
+    <t>عبدالله عمار</t>
+  </si>
+  <si>
+    <t>مصعب عمر</t>
+  </si>
+  <si>
+    <t>المصطفى احمد</t>
+  </si>
+  <si>
+    <t>فاطمة الزهراء</t>
+  </si>
+  <si>
+    <t>آية عاطف</t>
+  </si>
+  <si>
+    <t>محمد حكيم</t>
+  </si>
+  <si>
+    <t>مريم حسن</t>
+  </si>
+  <si>
+    <t>مارتن ناير</t>
+  </si>
+  <si>
+    <t>يوسف عبد الله</t>
+  </si>
+  <si>
+    <t>1552409918 / +249966293122</t>
+  </si>
+  <si>
+    <t>منذر بابكر</t>
+  </si>
+  <si>
     <t>مصعب صديق</t>
   </si>
   <si>
-    <t>فياض حمدي</t>
-  </si>
-  <si>
-    <t>فراس بن أسامة</t>
-  </si>
-  <si>
-    <t>عمرو خالد</t>
-  </si>
-  <si>
-    <t>Has a car</t>
-  </si>
-  <si>
-    <t>عمر الفاتح</t>
-  </si>
-  <si>
-    <t>Walmart Training</t>
-  </si>
-  <si>
-    <t>يوسف غرانت</t>
-  </si>
-  <si>
-    <t>1069935066 / 1282029756</t>
-  </si>
-  <si>
-    <t>نور هشام</t>
-  </si>
-  <si>
-    <t>أسيل سامي</t>
-  </si>
-  <si>
-    <t>عبد المنعم عبد الرحمن</t>
-  </si>
-  <si>
-    <t>عمر عادل</t>
-  </si>
-  <si>
-    <t>Estance John (استانس جون)</t>
-  </si>
-  <si>
-    <t>لوجينا أحمد كامل</t>
-  </si>
-  <si>
-    <t>1034404158/ 1032464427</t>
-  </si>
-  <si>
-    <t>دولت أمير</t>
-  </si>
-  <si>
-    <t>الطالبية</t>
-  </si>
-  <si>
-    <t>احمد عوض</t>
-  </si>
-  <si>
-    <t>الجزيره</t>
-  </si>
-  <si>
-    <t>فايزة خالد</t>
-  </si>
-  <si>
-    <t>محمد مصطفى</t>
-  </si>
-  <si>
-    <t>سيف الشامي</t>
-  </si>
-  <si>
-    <t>امين عبد الحي</t>
-  </si>
-  <si>
-    <t>محمود عبد العليم</t>
-  </si>
-  <si>
-    <t>هبة الله نوفل</t>
-  </si>
-  <si>
-    <t>أماني الله شيراني</t>
-  </si>
-  <si>
-    <t>محمد المصطفى هاشم</t>
-  </si>
-  <si>
-    <t>عبدالوهاب مالك</t>
-  </si>
-  <si>
-    <t>هبة عثمان أحمد الطاهر</t>
-  </si>
-  <si>
-    <t>1556802729/249966553605</t>
-  </si>
-  <si>
-    <t>محمد نادر عوض</t>
-  </si>
-  <si>
-    <t>مصطفى محمد</t>
-  </si>
-  <si>
-    <t>كشك اللحمه</t>
-  </si>
-  <si>
-    <t>1559986500/249119446025</t>
-  </si>
-  <si>
-    <t>رائد ياسر</t>
-  </si>
-  <si>
-    <t>1500837996/249929419400</t>
-  </si>
-  <si>
-    <t>احمد عبد العظيم</t>
-  </si>
-  <si>
-    <t>سلمان معتز</t>
-  </si>
-  <si>
-    <t>محمد احمد اسماعيل</t>
-  </si>
-  <si>
-    <t>ابو العور</t>
-  </si>
-  <si>
-    <t>1121009457 // 249964844267 WPP</t>
-  </si>
-  <si>
-    <t>عفراء حاتم</t>
-  </si>
-  <si>
-    <t>يحيى لطفي</t>
-  </si>
-  <si>
-    <t>إسراء سامي</t>
-  </si>
-  <si>
-    <t>سهيلة عاطف</t>
-  </si>
-  <si>
-    <t>ندى سعد</t>
-  </si>
-  <si>
-    <t>ليلى حمدي</t>
-  </si>
-  <si>
-    <t>مهيار حافظ عباس</t>
-  </si>
-  <si>
-    <t>مصطفى حازم</t>
-  </si>
-  <si>
-    <t>أندرو عادل إسحاق</t>
-  </si>
-  <si>
-    <t>حسام محمد نبيل حمدي</t>
-  </si>
-  <si>
-    <t>لوكا اميل</t>
-  </si>
-  <si>
-    <t>أمل نبيل</t>
-  </si>
-  <si>
-    <t>فايزة كمال</t>
-  </si>
-  <si>
-    <t>عبد الله جمال</t>
-  </si>
-  <si>
-    <t>إيمانويل بوث</t>
-  </si>
-  <si>
-    <t>عمر مهدي</t>
-  </si>
-  <si>
-    <t>ملاك انطون مهنا</t>
-  </si>
-  <si>
-    <t>جاسم أسامة</t>
-  </si>
-  <si>
-    <t>حبيبة خالد</t>
-  </si>
-  <si>
-    <t>محمد ابوبكر</t>
-  </si>
-  <si>
-    <t>خان ستيف</t>
-  </si>
-  <si>
-    <t>عبدالله طارق</t>
-  </si>
-  <si>
-    <t>احمد شبل</t>
-  </si>
-  <si>
-    <t>حبيبة جعفر</t>
-  </si>
-  <si>
-    <t>حمدي مصطفى محمد وائل أبو المعاطي</t>
-  </si>
-  <si>
-    <t>عمار ياسر</t>
-  </si>
-  <si>
-    <t>مريم السماك</t>
-  </si>
-  <si>
-    <t>مازن اشرف</t>
-  </si>
-  <si>
-    <t>عبد الرؤوف محمود</t>
-  </si>
-  <si>
-    <t>1108394758 / 1066438917</t>
-  </si>
-  <si>
-    <t>يوسف وليد</t>
-  </si>
-  <si>
-    <t>مازن الباجوري</t>
-  </si>
-  <si>
-    <t>1044637937/1108373366</t>
-  </si>
-  <si>
-    <t>محمد البدري بابكر</t>
-  </si>
-  <si>
-    <t>بوابه 24</t>
-  </si>
-  <si>
-    <t>مراد مصطفى كمال</t>
-  </si>
-  <si>
-    <t>مصطفى مدحت</t>
-  </si>
-  <si>
-    <t>حسام الدين وليد مصطفى</t>
-  </si>
-  <si>
-    <t>عبد الرحمن زين</t>
-  </si>
-  <si>
-    <t>1505229817 WPP only</t>
-  </si>
-  <si>
-    <t>براء محمد</t>
-  </si>
-  <si>
-    <t>أحمد مصطفى كامل</t>
-  </si>
-  <si>
-    <t>ضحى عامر</t>
-  </si>
-  <si>
-    <t>سعيد الليثي</t>
-  </si>
-  <si>
-    <t>الحي العاشر</t>
-  </si>
-  <si>
-    <t>ياسين صبري</t>
-  </si>
-  <si>
-    <t>1273412666/249969118005</t>
-  </si>
-  <si>
-    <t>باسل معتز</t>
-  </si>
-  <si>
-    <t>1225392073 / 1550558440</t>
-  </si>
-  <si>
-    <t>يوسف طاهر</t>
-  </si>
-  <si>
-    <t>عمرو تامر</t>
-  </si>
-  <si>
-    <t>محمد علاء</t>
-  </si>
-  <si>
-    <t>1557655853 / 249965691878</t>
-  </si>
-  <si>
-    <t>عبد المنعم خالد</t>
-  </si>
-  <si>
-    <t>ندى أحمد جاسم</t>
-  </si>
-  <si>
-    <t>آية محمد الصديق</t>
-  </si>
-  <si>
-    <t>دانيا ياسر</t>
-  </si>
-  <si>
-    <t>1128109338_00249901091101</t>
-  </si>
-  <si>
-    <t>كريم الدين امير صلاح</t>
-  </si>
-  <si>
-    <t>مدثر أسامة</t>
-  </si>
-  <si>
-    <t>إسراء مهدي</t>
-  </si>
-  <si>
-    <t>عمر عبدالله</t>
-  </si>
-  <si>
-    <t>249122099066/1551258200</t>
-  </si>
-  <si>
-    <t>عثمان نورالدين</t>
-  </si>
-  <si>
-    <t>سيف وائل</t>
-  </si>
-  <si>
-    <t>إياد خيري</t>
-  </si>
-  <si>
-    <t>ماسة عصام</t>
-  </si>
-  <si>
-    <t>عبدالله غاندي عبدالله النويري</t>
-  </si>
-  <si>
-    <t>شهد محمود</t>
-  </si>
-  <si>
-    <t>تيموثي مودي</t>
-  </si>
-  <si>
-    <t>بسنت أحمد سمير</t>
-  </si>
-  <si>
-    <t>هادية وحيد</t>
-  </si>
-  <si>
-    <t>باسل هشام</t>
-  </si>
-  <si>
-    <t>يارا ايهاب</t>
-  </si>
-  <si>
-    <t>هدى عز</t>
-  </si>
-  <si>
-    <t>امجد احمد</t>
-  </si>
-  <si>
-    <t>أحمد محمد سمير محمد</t>
-  </si>
-  <si>
-    <t>وليام جلادا</t>
-  </si>
-  <si>
-    <t>الاء ابراهيم عبد العزيز محمد</t>
-  </si>
-  <si>
-    <t>هادي عادل</t>
-  </si>
-  <si>
-    <t>ديفيد مايكل</t>
-  </si>
-  <si>
-    <t>احمد داوود</t>
-  </si>
-  <si>
-    <t>احمد المنياوي</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>مؤمن صلاح</t>
-  </si>
-  <si>
-    <t>1507944711 WP / 1553516466</t>
-  </si>
-  <si>
-    <t>امنية كمال</t>
-  </si>
-  <si>
-    <t>محمود حسن</t>
-  </si>
-  <si>
-    <t>ابراهيم محمود</t>
-  </si>
-  <si>
-    <t>ياسين عمرو</t>
-  </si>
-  <si>
-    <t>محمود عاطف</t>
-  </si>
-  <si>
-    <t>مصطفى عبد الباسط</t>
-  </si>
-  <si>
-    <t>بال جون</t>
-  </si>
-  <si>
-    <t>جودي موسى</t>
-  </si>
-  <si>
-    <t>1024194988  / 1224030197</t>
-  </si>
-  <si>
-    <t>محمد ابراهيم</t>
-  </si>
-  <si>
-    <t>رنا شمس الدين</t>
-  </si>
-  <si>
-    <t>محمد أيمن</t>
-  </si>
-  <si>
-    <t>نور الدين محمود</t>
-  </si>
-  <si>
-    <t>حازم حسام</t>
-  </si>
-  <si>
-    <t>إياد ياسر</t>
-  </si>
-  <si>
-    <t>عبدالله عمار</t>
-  </si>
-  <si>
-    <t>مصعب عمر</t>
-  </si>
-  <si>
-    <t>المصطفى احمد</t>
-  </si>
-  <si>
-    <t>محمود البنداري</t>
-  </si>
-  <si>
-    <t>فاطمة الزهراء</t>
-  </si>
-  <si>
-    <t>آية عاطف</t>
-  </si>
-  <si>
-    <t>محمد حكيم</t>
-  </si>
-  <si>
-    <t>مريم حسن</t>
-  </si>
-  <si>
-    <t>مارتن ناير</t>
-  </si>
-  <si>
-    <t>يوسف عبد الله</t>
-  </si>
-  <si>
-    <t>1552409918 / +249966293122</t>
-  </si>
-  <si>
-    <t>منذر بابكر</t>
+    <t>من 6 م</t>
   </si>
   <si>
     <t>مصطفى عثمان</t>
@@ -2354,9 +2363,6 @@
   </si>
   <si>
     <t>تنزيل عثمان</t>
-  </si>
-  <si>
-    <t>ألوك مايوم</t>
   </si>
   <si>
     <t>عثمان هاشم</t>
@@ -2607,7 +2613,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2635,6 +2641,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2976,7 +2988,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3000,16 +3012,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3018,85 +3030,85 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -3110,7 +3122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3193,13 +3205,16 @@
     <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5699,611 +5714,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{ED78B169-BB1F-477A-A9A0-FCBC23396C01}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{217228B9-4FA8-4F76-8758-5A590F8BC24A}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{85D0CE1E-C69E-49EA-8A6D-C30EE4DF69B1}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{50AAA061-3FB6-4793-8F46-E59B997862C0}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{1FF5EC60-3147-4710-B2B3-F4C41B02E710}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{9D3677EF-A5B8-4614-AE5B-07271B4DE9DD}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{028D3E4F-ED83-4443-8B4E-A30E777C8B9C}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{C1ADD437-21AD-457A-8D9E-C3A4019E7C81}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{53881C65-2CE2-4F5F-B563-3C3601A54E07}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{7EB75593-FB73-49BA-BA5E-1F54D579FF8E}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{826B5F52-C617-4AEF-AD4E-7ACB69D72834}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{E4959866-0220-40AA-94B6-B64002D28ACE}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{8BE0F550-B810-4BE9-AE35-42A3A94B5D77}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{FFCF2870-E8FC-4DA8-A536-8E470E6526EB}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{DC11D25D-4803-4A6E-A5C6-0EE2E523CE52}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{D158FEBC-18C6-421F-A3BF-3CB65E249E51}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{C77BF8F7-B6A4-47A6-8D1E-1977557EAD2C}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{222B5EA2-C1AD-475C-AE67-867311A420DB}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{74BB8EA9-0108-474A-9E49-929064F23557}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{D009D2C8-386C-4C3F-9108-E970E6FBD659}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{6F22C5D1-F4EB-4862-AFAC-D68EDC64E108}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{89B07864-56E7-4598-B260-D0CBC8497710}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{9C55A802-2512-451C-850C-D4064BA97AA4}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{8F893A30-5568-47A8-9E2D-8C83307AE28A}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{DCC94E3D-F40C-4147-84B1-93773C770F74}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{6941B7EF-E3A8-465F-94AE-6704F50FAFFC}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{8B3818BB-E679-416F-913F-56BC9EF803AB}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{BCEDC67E-87DD-4F49-8A16-332671D948CE}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{6A29D4AC-2F4B-46AA-992B-A00445016C67}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{E2C8DB93-FCFB-43B4-BB16-DB8795C0A521}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{E4F69485-6429-485C-91A2-BCF223B1048C}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{5F7772E2-2C88-49A2-9224-717BA741C685}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{1067C5D1-E30D-4F90-A059-C8E8DD132B4C}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{3DC0F09A-097A-4416-B5AC-DD29F31C0973}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{3DA565AB-BECA-4805-B424-6781779D0801}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{A556364C-32BA-401C-A18C-1AF481370A41}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{110C3643-411C-4A91-8406-CB418CFE616E}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{E35B3F1A-5DD6-466D-AE77-0D05891CBEC9}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{359C216C-C6DE-4AD0-90CC-2B5B7E3C8A6F}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{7861E28F-1D91-442F-8819-05B8928A89FF}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{919D570C-3A16-485C-B1DF-268AA0E5D011}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{BC819D92-1D35-4082-AA69-88ED4D4C01FB}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{8090FC22-B47D-402D-B06A-D383901EE524}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{06895E1D-1A27-47A7-9E60-F0503175092B}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{89034A67-2135-4930-A5FD-4AA472D99D08}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{AA842AB9-C740-4B78-944C-D93DC5C78A38}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{2C448F03-79BE-4B5B-AF67-774139A5F7E0}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{1947E485-795E-4487-A948-F7A9BBD6A4A7}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{E08379EF-7E7F-4355-B316-E20A598AF8DA}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{0607AB29-3FEC-484C-B4B1-F949769CC9EA}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{3691D3BF-F78A-475E-B4E7-D7F0DF4E7D1E}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{0A6A33AB-8AE6-42F9-8DB2-A347846061CF}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{026D01CA-7ED2-48FB-8947-3C28A70301B2}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{4611336E-E97D-4F67-A279-BAFB28E80C32}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{4128F634-BE77-4A8B-B1A5-785B26E024FE}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{E8C34EE8-D1C2-4EA9-AB0B-42042F21883D}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{5F62EFB9-740E-4FF4-8D2F-6579B0A1C8F7}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{68027007-4D96-4B03-B98E-7676C8F1C7A9}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{46D5CFDD-4089-486F-835E-B91A87153771}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{B0AA1A71-B0D5-4B50-9265-A3392A1FEFC8}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{E9E1F2FA-EF25-46D3-BAA3-60244CE5E8B9}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{38B756F5-6390-4169-91B4-20A052F2C4AF}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{69B9DEB5-F9A1-4867-A1A7-08DDDA4AC24E}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{ED094922-E47B-4A4D-97FF-12F02A349141}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{D9CA7C7F-3881-4823-85D2-F565425DD3DB}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{B0851423-A2A5-4C47-8F89-16BE068DCED3}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{D48D7D06-ADD5-4F53-B526-C6D13D143C6E}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{9D390A98-FBDE-4B96-928A-FE975D699A06}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{4D20BF53-7DF5-4001-818A-2D5F99735BD1}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{B8CEE221-6AC6-4F6F-8618-040A789ED7FE}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{E56F42B9-2A99-4786-A095-00C0383A3620}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{D722B9A0-ABF8-416F-9F02-D811B2F33342}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{3E01953E-7236-453F-8519-7ECAAC740F25}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{ED33A2BC-EC85-45D6-B060-BCFC3B32D7F1}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{AF4E165D-70CF-4A29-B8B9-45FE1CBBA171}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{4E5CC837-4B05-4FDC-9FB7-A1D28710DA7C}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{4AC8EFDD-C37F-4FEB-B581-FC40A42E29CF}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{48898ADF-2CDF-43D0-A9F9-0B5056F1EC54}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{FB63DA01-4516-4348-9591-D746FF16704F}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{65608D28-4E09-4333-8976-A418400029DC}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{F1C54D2C-6C4B-4B68-9CB6-B523AF73541B}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{E729025B-1C00-4872-ADED-1BD21D1C876D}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{3AF3ED6A-8B18-4F0F-8B39-00A56645DA41}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{CA48CE3C-59FA-4E6B-BFE9-4A114976DC72}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{D254D7FB-DD51-4A0E-9A5E-F2A5A5844D3F}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{190962B3-74D6-42AA-B116-9E7D6EE31E3E}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{97964A41-150B-4123-98B5-0B38AB90AD1C}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{EE78AA40-19C0-4B5E-8C07-650CF987BB2B}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{519D7023-96E4-435F-B730-5521CC395E1E}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{3B069D00-C267-4ED8-8E7E-33B70AAF0812}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{AD8CCFF9-1D9D-4E38-BB78-567161C7A045}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{3D064EA0-F0FE-494D-B42F-AC4DD2C0A4DC}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{561343E9-C2D0-46E6-9D0A-645258B88695}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{D8CA2252-C7A0-4555-B9BC-98036FB33E97}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{4B60DF27-619F-4444-9267-BD67EB5FCA4A}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{3EEB741F-2744-4074-8581-34B930CB0F20}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{09665A2B-E8CF-491A-AD90-5ABB83989BF8}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{15EFFB07-F304-4FB6-B1C7-3A8C8AFE2D34}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{FFEEBC49-8E75-4BB3-B7D6-948E9B82D20A}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{C91114D8-BA3F-4B8E-A083-D56F7A6222FD}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{2276A084-03EC-4FC4-8452-3D7EB81801AB}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{3FD350FA-87B7-4698-B6EB-E4C1CD186F2E}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{CC6ADB55-9DB4-4152-B73B-A8472845FD41}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{5234897D-83E4-4B8C-B52A-FBFEF7ABDA15}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{7075661C-BBBB-4ED2-A4C9-07A2FDA6140B}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{8DFE118D-94E9-4926-86B9-47D99DB54E0C}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{1FF6A78F-341E-491B-9BFD-90C727B8A98D}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{85590F16-3091-4F3F-A635-22EB69D4EACA}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{B589A621-776B-4163-A14F-792079E1B7E7}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{B37E5119-EAE9-4509-94B9-5274A821AC6B}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{E9B07FCB-2110-4404-AB87-91B947A86E0F}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{78C7EC37-B12D-4BF0-B6D2-47D6B466DC22}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{4C855113-5BA7-4E5C-ABA7-67447AA6F352}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{D921BF5B-DDE5-4247-B7CA-BDC37EF2E0C0}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{F874B39F-D955-4CFE-82F5-F406E11A8D1F}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{ADA02A95-6FE0-4672-87D5-3EECF7EF6DB7}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{ECC8413E-0CD3-426A-B11C-8FDD0F26D868}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{8A5B4E3B-1A6A-4BA6-BB62-2E0BE58513DC}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{CD903F74-B797-4C5A-B686-2DC5784EDD5D}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{4E66BC2C-8692-45ED-83C0-ED7DB89834DB}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{CBF66265-F056-4F2C-95FE-2F598FAFD490}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{EDBA5098-740B-47AA-8426-B86AFD7758D0}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{A9BC867A-9501-40C5-956C-198EEB34C21C}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{A540D6DF-F658-45BC-836F-625385E4FB94}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{97B683C5-3C40-4A63-A11C-2E03BFB26A22}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{47803548-493A-4F80-9EB8-9EA0A0E054A1}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{D99CD112-CF02-471C-9FC3-2319CE39FADB}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{A1B63421-7D68-479E-BDB2-B73C11327E5C}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{A94F54D5-A1F0-4563-A493-E96B924CD145}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{CD53FBE7-088D-4096-8493-68AC8351823F}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{BB89DFE8-3E5B-4196-9DA4-EE425B180E0B}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{9CD4095B-8969-4504-B2F9-0BFD4E3E5FA2}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{7FF99F3A-F48A-409E-88D9-D787E59AD653}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{DF06B9C9-F6F3-49E1-98A7-76E43B185F5F}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{FD3F8C54-B8A9-4495-8C1A-302FBB429793}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{74133B82-8B21-422E-A83A-446F2D179207}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{784DFE90-14C8-48D5-A98D-704A8A99FDB6}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{D2569A07-C3CF-4D5E-A3AE-3CF777C8BE19}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{3E72A362-C0D5-43EE-9735-341F15AFF5EA}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{AE0146BC-228B-4CEC-B240-6AD2E9AE0890}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{A2653B6C-C855-4811-8E0E-7B876BE93C7E}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{E4BBAD19-0F96-4BE7-B5F8-E1AE2BE5D59E}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{C22DD6D0-886C-40A5-BFBA-EC535DCD939E}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{F4D27E87-EE34-4006-9B71-BFA18FDEDFE2}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{7E006C3F-A3D6-47B8-A5B8-4A5E800BA6BC}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{D7859D8D-7CAD-4025-9DB8-F2CDCD4F7A4F}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{C8AE9EEF-0294-44D3-A059-AFF1764C95F9}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{49764B84-0BB7-4671-9D01-290C871BC0E7}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{6F95ACEC-1C5F-4741-97B7-34C77C846C65}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{F7B63368-F99B-4EC9-B57F-43195FE97D6B}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{5BA71052-AE19-4271-A250-0A1FDC654943}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{1B47B94D-91E7-47E2-A955-63FF79957556}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{291AA45D-F95C-4790-8C66-397DD4F87E8E}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{8F69FC50-7FE0-4F95-9BD7-C8BDBB1C5379}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{1965C8D2-9D4A-4C6F-A287-C04BDE88F82F}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{B8E08149-59D7-4BFE-935A-5C1ECAA4FE2F}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{AA3B4790-1B0A-422F-AA71-BF4D09624A5A}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{5A710863-F2BA-48F0-B6C9-976EC0D5877E}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{E99820C7-0BC9-4A6F-A7E2-18EEB0B935E7}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{79751F04-8465-4838-92C3-7D8B8B1D6A0E}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{99E137D3-393C-4EF6-A9D6-A3DF14771808}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{D62C2E97-8732-447D-B40D-22B5D1171D28}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{BBC2C446-1977-4FDD-BDE4-4E8DE4815445}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{D6C5F777-2B64-44F5-9C3C-E98C1AF19A92}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{609C7B38-6EAB-4192-958F-8B88EC5397AB}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{F7FA554D-291B-4D2B-9C12-1C8F1C574DA7}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{5494F81B-4BB6-4C09-84B6-27722368E715}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{9DA22B3B-9AA7-494B-B56B-EBC7AF84C852}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{9F53A440-BA0A-4204-94A7-925B4077F8F9}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{B0929C65-DC41-4199-9B08-D2B5B66739CB}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{4F86AF1E-5369-47ED-B995-116F73B7CB2C}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{E9C0FBC3-75FF-4A48-99C9-850BFC5F1553}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{AB3054AB-55A2-4187-A8C7-62B38677C02B}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{FE955716-8CDC-4A25-B6D3-78C2E9A00FC2}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{626E4B27-24D7-4FCF-979C-4844FA2F6F38}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{8FCCDAE9-0C2D-4FC1-AFF0-2E01D9E69630}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{0A8AFF8A-F939-4EBC-8E14-B7E8FA3FC72F}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{5665362D-2487-4D90-98C5-4CAA3BE0A0A6}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{44B3C873-7673-4005-A279-07631AD92D93}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{12046A14-3C53-4C92-B8D5-BC2183CED6A7}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{4478F146-6410-4EAF-A6BD-75CDD8B8766E}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{0B29B9EF-D182-405E-9DA5-FB8FDC4342E2}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{6D74BB7D-84E6-44CF-81E2-B03D3D20D885}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{5AA8253C-7915-449B-82C7-A55DC244638F}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{6A8D5411-D0CF-4E0C-A318-F9CA3EA95186}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{F464B225-9A13-4315-9071-913A79229D5B}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{B91B2C6E-1135-4092-9F15-FBD711593549}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{D60CF4C9-A577-4469-8B79-DCE134DE79A8}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{FD8FCE59-3258-42CA-ADDD-432AE65F83EE}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{4C25F8F6-59B8-4214-973A-5C275EF7B1F4}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{254A9A80-8064-4100-B883-27373A6DEF69}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{8C68B232-4713-4A6E-A68E-4691BFE345E2}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{DEF032C3-C1F2-41C1-9DE7-20004607E4CD}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{2182D3D2-69D4-4280-B670-67500D0A350C}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{979488EF-4FA9-431A-BBFF-2BA06AC91E04}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{172CCCD7-BE27-4508-8CBB-D90189C60E72}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{FBB7503A-9028-4079-BCA0-C927A940F67E}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{1812C2E2-BFE7-4967-94E4-836F4C2428FD}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{86CF0ED4-21C7-439A-B9CC-1CFA69A5113E}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{CE5302F9-00A1-4ED4-BBB6-CB467DD071DF}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{92642FBE-6C22-4CD0-BBC0-9220FC3044E8}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{752C832C-ECE4-4D6E-AC4B-4E16B5ADE27F}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{02DCA425-2023-4E2A-BB5B-B76C320034EA}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{456C2E4B-4775-4AD9-B2BD-1D1C82DF3E45}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{E6BBE6EE-F61D-42B9-BD42-1F8D72418859}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{B0E1B4B3-0CCD-455E-B18B-7A576EE6FE9A}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{B02C7613-B4CF-4A6D-ADD2-2A175C4CCA78}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{B9E61FB4-6987-4B40-ADD3-B6DD98A76718}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{D03FC215-E95B-4FE6-BA20-722F2DDF05F3}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{7BA9F088-F7BC-4968-A523-0D4A724D86E2}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{1CDE9C27-D551-43A7-8AC3-00C719A2F531}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{652D5146-90E4-4011-A210-B654D93C41D2}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{AEFB96F6-4C34-4E4F-977E-4A3C11E9279F}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{123B3F79-AB50-47E8-9B93-A3521012D788}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{B7D97D03-2A22-416C-A53E-06A0DD2E7B2A}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{B62D6F3B-E351-4914-A3B1-9446A292FC00}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{7598D4F2-A0E4-4523-A9A7-494FF5886FF2}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{C889693C-6D35-473B-925A-C4E0D1CC39A9}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{5640326A-B271-4C45-90D6-6233E0520973}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{6DE73F54-B1AD-44EA-87A4-62F39275E6A3}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{E34C9CB0-65E0-4620-8FB1-DB8E6DFCDBB8}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{A86713DC-EA69-46DB-A408-286046E518DC}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{689226C2-9A85-4B6E-AFA9-0E7FB40BD11C}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{E40E64BA-236C-4A69-B348-457D81B2E276}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{A5D39AA5-AD6F-484F-AB3D-478BB70E82E4}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{AE77685F-5D28-4538-AF23-3465F2881C58}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{4BA5FBDE-A7CB-4382-83A8-BB5D4C37BF74}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{02ED5FAE-308C-496B-AB96-D38A3B56485C}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{4CAF4BE7-CAF8-4727-A7AF-66773E025845}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{514D0A90-7CD0-4521-86E3-AC51B7DE19A8}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{BCE9C8B2-9296-4164-9305-3470A230619A}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{68FC4EDC-C167-461F-8334-BE53D5FB2B0B}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{158504D0-8080-46D6-BAA1-D9EB79741234}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{F447A8B4-5986-4A1F-B89C-A32F7AB29D8E}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{929FED14-956E-43CD-AC30-B06A0A98BEC0}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{E6646B90-3974-4B7C-8EC5-A5E06E3F858B}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{8DB9535D-0D2A-4F36-9E45-ADA6A81C2C0E}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{30EC1F6C-E2AD-4566-9AFC-83103F54283C}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{EE6FBE61-D03B-4DED-BA67-9220E1CEE2FD}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{B56C91F3-50D4-4162-8640-7400D4FA259C}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{90BD7F08-4828-4286-921E-A73894FCAAF1}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{A6AA9152-576E-4662-A118-AB863E211B81}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{78F20855-DF09-48D8-B8CC-B20014B18D5E}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{7890D35E-E266-4A9F-9335-E8754BBC7C8D}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{568B667B-8E98-4562-95C5-5167EFAD9869}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{954F6860-2640-4CDA-B388-78AF1B178D7B}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{371541E7-8E5F-492F-9AA3-7988228CD3F7}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{64A66C11-ED95-4280-AD01-7440163BF9EC}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{8F1E4269-BE60-4334-8B63-71B72CAEDEB2}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{D0802E77-D4CB-4DE7-9721-9215327034C3}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{A90A17A4-73DB-44A2-A470-0BB357691746}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{6D34AB38-0A92-4FE3-98ED-D9365F8378E5}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{F137A7D5-E7E4-4D29-8368-5CAE8B9E96CF}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{4ED041E0-2324-4918-B731-A4A4A2F3C1FB}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{2A218FDD-E2FB-4CE8-9686-82A7FD1FE532}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{68D14B1F-D257-469E-935E-34CED2BA7C93}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{1C053D21-51B2-46DF-A528-B5C9A576E71D}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{2565F911-BD3D-4B3B-A596-EC79E3309B5A}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{88DEDF43-75D1-4F4E-9C55-18AA05153437}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{D97C187F-64EE-46EA-A031-20C2963D8A48}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{3085A551-A8CA-4197-8249-DB5E72C9764C}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{B442794C-D862-4B71-B5FB-FE04890C6686}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{BEA1D4DC-97AA-4011-BBC3-C8CBA0B70B2C}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{17B7A22C-662C-4205-8C7E-5FC9D74CB20E}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{9C65F0B7-0A0C-4186-9529-3B81507F83E5}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{780EDBE1-B379-4032-AB7B-174D658D7733}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{7EA2087F-DCE8-48C8-AC8B-E47D2E6F4799}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{B797027F-BEEA-4F8A-BD7E-BB66245C2E68}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{76FA6836-88D4-4D4B-8716-D7C994B1DCEB}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{71B4F942-CC08-4241-B66F-1EE5830955EE}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{64C47D7F-5984-42A8-8E06-360E88B4E5ED}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{542611DA-1B63-4BFD-8774-11BC58714174}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{0E855DFF-65F2-4367-8454-0DF65AB5E33A}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{31D88D75-F16B-42A7-ACE5-C9C0DB0CC42E}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{95E46B2C-5751-4DD8-9C83-BA739A197601}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{A4CB22B8-8BE3-4ECA-A7E0-239AB64D0F4B}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{2498680C-A5E3-4CF3-BFE3-63E16741CF0F}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{2A3D3B4F-1EDD-4694-8FA8-5A5AF2143959}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{FB3E2887-83AD-49E3-8489-8401744CC805}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{B4947227-995B-4C94-9911-C641AD81D952}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{B13309BD-089E-4371-A258-4A0D73A3751A}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{B220BE9A-FEB7-435D-85D0-5E5E439C77E5}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{1F0463D1-DB3F-45F3-9661-492B3D8A6E80}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{F5D55850-9C4C-4651-94E5-6435F35A6B2C}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{117A2A1C-E626-4F3B-B95A-75767AEC8E26}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{2E4D38DE-AA09-4CEF-B648-B5333074AA95}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{B7255C8F-C450-4EAA-8E0A-0F6A108D07AD}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{2206B481-76BB-4840-A2FB-131C1A446169}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{5961503B-B392-4B1D-A72E-CBFA5CBE7CC4}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{5640B84D-55DC-4408-AFB4-BF729DD90446}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{445D291B-B195-4C36-9AE8-9111FBA4E304}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{5F662B3C-30DA-4BC0-A273-DE6ACCB6D4DD}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{63B3D892-1B4F-431E-AEC0-06F87F073B94}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{BDE8E1DE-DEEE-42E9-9A6E-F9A182777D9D}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{617A68D8-C691-402E-BD4D-A14CD2883265}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{55C0946F-969E-467F-B34C-20589E88698D}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{E25111A4-33BD-4EDB-BCCF-05937D93CD2B}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{321C720A-657D-4696-B231-9BDBF01A03A3}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{44402F9E-EF34-4211-A5C6-CE19437AC36D}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{2AA68B88-D15C-420B-A287-98C91F25159C}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{0D879A0E-38AC-4674-B34D-DB572C7C342A}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{FADAAED8-F7C1-4DAE-A722-4251431F8841}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{7604D384-E847-4486-96A3-0D85749E3477}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{6B1B66FD-0797-4550-A3CE-803692AB4C3C}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -35651,13 +35666,13 @@
         <v>0.75</v>
       </c>
       <c r="C639" s="25">
-        <v>1.125</v>
+        <v>0.125</v>
       </c>
       <c r="D639" s="26">
-        <v>1505849880</v>
+        <v>1102766064</v>
       </c>
       <c r="E639" s="16">
-        <v>10344860</v>
+        <v>10327950</v>
       </c>
       <c r="F639" s="26" t="s">
         <v>610</v>
@@ -35703,10 +35718,10 @@
         <v>0.125</v>
       </c>
       <c r="D640" s="26">
-        <v>1102766064</v>
+        <v>1118972534</v>
       </c>
       <c r="E640" s="16">
-        <v>10327950</v>
+        <v>10331702</v>
       </c>
       <c r="F640" s="26" t="s">
         <v>611</v>
@@ -35745,29 +35760,31 @@
     </row>
     <row r="641" ht="43.5" customHeight="1" spans="1:33">
       <c r="A641" s="6"/>
-      <c r="B641" s="25">
+      <c r="B641" s="14">
         <v>0.75</v>
       </c>
-      <c r="C641" s="25">
+      <c r="C641" s="14">
         <v>0.125</v>
       </c>
-      <c r="D641" s="26">
-        <v>1118972534</v>
+      <c r="D641" s="15">
+        <v>1026041099</v>
       </c>
       <c r="E641" s="16">
-        <v>10331702</v>
-      </c>
-      <c r="F641" s="26" t="s">
+        <v>10344170</v>
+      </c>
+      <c r="F641" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="G641" s="26" t="s">
+      <c r="G641" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="H641" s="26" t="s">
-        <v>311</v>
+      <c r="H641" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="I641" s="20"/>
-      <c r="J641" s="19"/>
+      <c r="J641" s="19" t="s">
+        <v>613</v>
+      </c>
       <c r="K641" s="18"/>
       <c r="L641" s="18"/>
       <c r="M641" s="18"/>
@@ -35963,13 +35980,13 @@
         <v>10348215</v>
       </c>
       <c r="F646" s="15" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G646" s="15" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H646" s="15" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I646" s="20"/>
       <c r="J646" s="19"/>
@@ -36012,13 +36029,13 @@
         <v>10348308</v>
       </c>
       <c r="F647" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="G647" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="G647" s="15" t="s">
-        <v>614</v>
-      </c>
       <c r="H647" s="15" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I647" s="20"/>
       <c r="J647" s="19"/>
@@ -36093,10 +36110,10 @@
         <v>1205310663</v>
       </c>
       <c r="E649" s="16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F649" s="15" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G649" s="15" t="s">
         <v>38</v>
@@ -36139,13 +36156,13 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D650" s="15" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E650" s="16">
         <v>10344169</v>
       </c>
       <c r="F650" s="15" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G650" s="15" t="s">
         <v>38</v>
@@ -36194,7 +36211,7 @@
         <v>10348249</v>
       </c>
       <c r="F651" s="15" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G651" s="15" t="s">
         <v>38</v>
@@ -36243,7 +36260,7 @@
         <v>10348258</v>
       </c>
       <c r="F652" s="15" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G652" s="15" t="s">
         <v>38</v>
@@ -36327,7 +36344,7 @@
         <v>10348216</v>
       </c>
       <c r="F654" s="15" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G654" s="15" t="s">
         <v>18</v>
@@ -36376,7 +36393,7 @@
         <v>10348306</v>
       </c>
       <c r="F655" s="15" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G655" s="15" t="s">
         <v>18</v>
@@ -36457,10 +36474,10 @@
         <v>1287010193</v>
       </c>
       <c r="E657" s="16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F657" s="15" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G657" s="15" t="s">
         <v>44</v>
@@ -36538,19 +36555,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D659" s="15" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E659" s="16">
         <v>10348277</v>
       </c>
       <c r="F659" s="15" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G659" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H659" s="15" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I659" s="20"/>
       <c r="J659" s="19"/>
@@ -36628,13 +36645,13 @@
         <v>10348222</v>
       </c>
       <c r="F661" s="15" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G661" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H661" s="15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I661" s="20"/>
       <c r="J661" s="19"/>
@@ -36677,7 +36694,7 @@
         <v>10348312</v>
       </c>
       <c r="F662" s="15" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G662" s="15" t="s">
         <v>26</v>
@@ -36726,7 +36743,7 @@
         <v>10348227</v>
       </c>
       <c r="F663" s="15" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G663" s="15" t="s">
         <v>26</v>
@@ -36824,13 +36841,13 @@
         <v>10347280</v>
       </c>
       <c r="F665" s="15" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G665" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H665" s="15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I665" s="20"/>
       <c r="J665" s="19"/>
@@ -36908,7 +36925,7 @@
         <v>10333590</v>
       </c>
       <c r="F667" s="15" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G667" s="15" t="s">
         <v>186</v>
@@ -36957,7 +36974,7 @@
         <v>10333447</v>
       </c>
       <c r="F668" s="15" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G668" s="15" t="s">
         <v>186</v>
@@ -37006,7 +37023,7 @@
         <v>10212362</v>
       </c>
       <c r="F669" s="15" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G669" s="15" t="s">
         <v>186</v>
@@ -37055,7 +37072,7 @@
         <v>10348250</v>
       </c>
       <c r="F670" s="15" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G670" s="15" t="s">
         <v>186</v>
@@ -37104,7 +37121,7 @@
         <v>10348264</v>
       </c>
       <c r="F671" s="15" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G671" s="15" t="s">
         <v>186</v>
@@ -37153,7 +37170,7 @@
         <v>10335911</v>
       </c>
       <c r="F672" s="15" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G672" s="15" t="s">
         <v>186</v>
@@ -37202,7 +37219,7 @@
         <v>10348269</v>
       </c>
       <c r="F673" s="15" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G673" s="15" t="s">
         <v>186</v>
@@ -37245,13 +37262,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D674" s="15" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E674" s="16">
         <v>10347325</v>
       </c>
       <c r="F674" s="15" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G674" s="15" t="s">
         <v>186</v>
@@ -37335,13 +37352,13 @@
         <v>10348293</v>
       </c>
       <c r="F676" s="15" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G676" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H676" s="15" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I676" s="20"/>
       <c r="J676" s="19"/>
@@ -37378,13 +37395,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D677" s="15" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E677" s="16">
         <v>10348300</v>
       </c>
       <c r="F677" s="15" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G677" s="15" t="s">
         <v>12</v>
@@ -37427,13 +37444,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D678" s="15" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E678" s="16">
         <v>10348303</v>
       </c>
       <c r="F678" s="15" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G678" s="15" t="s">
         <v>12</v>
@@ -37638,7 +37655,7 @@
         <v>10346498</v>
       </c>
       <c r="F683" s="15" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G683" s="15" t="s">
         <v>64</v>
@@ -37722,7 +37739,7 @@
         <v>10335056</v>
       </c>
       <c r="F685" s="15" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G685" s="15" t="s">
         <v>38</v>
@@ -37771,7 +37788,7 @@
         <v>10282852</v>
       </c>
       <c r="F686" s="15" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G686" s="15" t="s">
         <v>38</v>
@@ -37849,13 +37866,13 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D688" s="15" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E688" s="16">
         <v>10333437</v>
       </c>
       <c r="F688" s="15" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G688" s="15" t="s">
         <v>18</v>
@@ -37939,7 +37956,7 @@
         <v>10344236</v>
       </c>
       <c r="F690" s="15" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G690" s="15" t="s">
         <v>26</v>
@@ -37988,7 +38005,7 @@
         <v>10285481</v>
       </c>
       <c r="F691" s="15" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G691" s="15" t="s">
         <v>26</v>
@@ -38072,7 +38089,7 @@
         <v>10335024</v>
       </c>
       <c r="F693" s="15" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G693" s="15" t="s">
         <v>12</v>
@@ -38271,13 +38288,13 @@
         <v>1.25</v>
       </c>
       <c r="D698" s="15">
-        <v>1005018561</v>
+        <v>1098356001</v>
       </c>
       <c r="E698" s="16">
-        <v>10347014</v>
+        <v>10347015</v>
       </c>
       <c r="F698" s="15" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G698" s="15" t="s">
         <v>64</v>
@@ -38320,13 +38337,13 @@
         <v>1.25</v>
       </c>
       <c r="D699" s="15">
-        <v>1098356001</v>
+        <v>0</v>
       </c>
       <c r="E699" s="16">
-        <v>10347015</v>
+        <v>10347347</v>
       </c>
       <c r="F699" s="15" t="s">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="G699" s="15" t="s">
         <v>64</v>
@@ -38372,10 +38389,10 @@
         <v>0</v>
       </c>
       <c r="E700" s="16">
-        <v>10347347</v>
+        <v>10346612</v>
       </c>
       <c r="F700" s="15" t="s">
-        <v>622</v>
+        <v>658</v>
       </c>
       <c r="G700" s="15" t="s">
         <v>64</v>
@@ -38418,13 +38435,13 @@
         <v>1.25</v>
       </c>
       <c r="D701" s="15">
-        <v>0</v>
+        <v>1228798735</v>
       </c>
       <c r="E701" s="16">
-        <v>10346612</v>
+        <v>10347758</v>
       </c>
       <c r="F701" s="15" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G701" s="15" t="s">
         <v>64</v>
@@ -38460,27 +38477,13 @@
     </row>
     <row r="702" ht="47.25" customHeight="1" spans="1:33">
       <c r="A702" s="6"/>
-      <c r="B702" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C702" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D702" s="15">
-        <v>1228798735</v>
-      </c>
-      <c r="E702" s="16">
-        <v>10347758</v>
-      </c>
-      <c r="F702" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="G702" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H702" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B702" s="14"/>
+      <c r="C702" s="14"/>
+      <c r="D702" s="15"/>
+      <c r="E702" s="16"/>
+      <c r="F702" s="15"/>
+      <c r="G702" s="15"/>
+      <c r="H702" s="15"/>
       <c r="I702" s="20"/>
       <c r="J702" s="19"/>
       <c r="K702" s="18"/>
@@ -38509,13 +38512,27 @@
     </row>
     <row r="703" ht="47.25" customHeight="1" spans="1:33">
       <c r="A703" s="6"/>
-      <c r="B703" s="14"/>
-      <c r="C703" s="14"/>
-      <c r="D703" s="15"/>
-      <c r="E703" s="16"/>
-      <c r="F703" s="15"/>
-      <c r="G703" s="15"/>
-      <c r="H703" s="15"/>
+      <c r="B703" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C703" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D703" s="15">
+        <v>1095892112</v>
+      </c>
+      <c r="E703" s="16">
+        <v>10314666</v>
+      </c>
+      <c r="F703" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G703" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H703" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I703" s="20"/>
       <c r="J703" s="19"/>
       <c r="K703" s="18"/>
@@ -38544,27 +38561,13 @@
     </row>
     <row r="704" ht="47.25" customHeight="1" spans="1:33">
       <c r="A704" s="6"/>
-      <c r="B704" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C704" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D704" s="15">
-        <v>1095892112</v>
-      </c>
-      <c r="E704" s="16">
-        <v>10314666</v>
-      </c>
-      <c r="F704" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="G704" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H704" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="B704" s="14"/>
+      <c r="C704" s="14"/>
+      <c r="D704" s="15"/>
+      <c r="E704" s="16"/>
+      <c r="F704" s="15"/>
+      <c r="G704" s="15"/>
+      <c r="H704" s="15"/>
       <c r="I704" s="20"/>
       <c r="J704" s="19"/>
       <c r="K704" s="18"/>
@@ -38593,13 +38596,27 @@
     </row>
     <row r="705" ht="47.25" customHeight="1" spans="1:33">
       <c r="A705" s="6"/>
-      <c r="B705" s="14"/>
-      <c r="C705" s="14"/>
-      <c r="D705" s="15"/>
-      <c r="E705" s="16"/>
-      <c r="F705" s="15"/>
-      <c r="G705" s="15"/>
-      <c r="H705" s="15"/>
+      <c r="B705" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C705" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D705" s="15">
+        <v>1281239426</v>
+      </c>
+      <c r="E705" s="16">
+        <v>10347530</v>
+      </c>
+      <c r="F705" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="G705" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H705" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="I705" s="20"/>
       <c r="J705" s="19"/>
       <c r="K705" s="18"/>
@@ -38635,19 +38652,19 @@
         <v>1.25</v>
       </c>
       <c r="D706" s="15">
-        <v>1281239426</v>
+        <v>1091172333</v>
       </c>
       <c r="E706" s="16">
-        <v>10347530</v>
+        <v>10347609</v>
       </c>
       <c r="F706" s="15" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G706" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H706" s="15" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I706" s="20"/>
       <c r="J706" s="19"/>
@@ -38684,19 +38701,19 @@
         <v>1.25</v>
       </c>
       <c r="D707" s="15">
-        <v>1091172333</v>
+        <v>1004402706</v>
       </c>
       <c r="E707" s="16">
-        <v>10347609</v>
+        <v>10344755</v>
       </c>
       <c r="F707" s="15" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G707" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H707" s="15" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="I707" s="20"/>
       <c r="J707" s="19"/>
@@ -38733,19 +38750,19 @@
         <v>1.25</v>
       </c>
       <c r="D708" s="15">
-        <v>1004402706</v>
+        <v>1111993596</v>
       </c>
       <c r="E708" s="16">
-        <v>10344755</v>
+        <v>10348040</v>
       </c>
       <c r="F708" s="15" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G708" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H708" s="15" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I708" s="20"/>
       <c r="J708" s="19"/>
@@ -38782,19 +38799,19 @@
         <v>1.25</v>
       </c>
       <c r="D709" s="15">
-        <v>1111993596</v>
+        <v>1070677030</v>
       </c>
       <c r="E709" s="16">
-        <v>10348040</v>
+        <v>10347638</v>
       </c>
       <c r="F709" s="15" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G709" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H709" s="15" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="I709" s="20"/>
       <c r="J709" s="19"/>
@@ -38831,19 +38848,19 @@
         <v>1.25</v>
       </c>
       <c r="D710" s="15">
-        <v>1070677030</v>
+        <v>1020340671</v>
       </c>
       <c r="E710" s="16">
-        <v>10347638</v>
+        <v>10347646</v>
       </c>
       <c r="F710" s="15" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G710" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H710" s="15" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I710" s="20"/>
       <c r="J710" s="19"/>
@@ -38880,19 +38897,19 @@
         <v>1.25</v>
       </c>
       <c r="D711" s="15">
-        <v>1020340671</v>
+        <v>1023360348</v>
       </c>
       <c r="E711" s="16">
-        <v>10347646</v>
+        <v>10347769</v>
       </c>
       <c r="F711" s="15" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G711" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H711" s="15" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="I711" s="20"/>
       <c r="J711" s="19"/>
@@ -38926,22 +38943,22 @@
         <v>0.875</v>
       </c>
       <c r="C712" s="14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D712" s="15">
-        <v>1023360348</v>
+        <v>1008448127</v>
       </c>
       <c r="E712" s="16">
-        <v>10347769</v>
+        <v>10299384</v>
       </c>
       <c r="F712" s="15" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G712" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H712" s="15" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I712" s="20"/>
       <c r="J712" s="19"/>
@@ -38978,19 +38995,19 @@
         <v>0.25</v>
       </c>
       <c r="D713" s="15">
-        <v>1008448127</v>
+        <v>1200090832</v>
       </c>
       <c r="E713" s="16">
-        <v>10299384</v>
+        <v>10291155</v>
       </c>
       <c r="F713" s="15" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G713" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H713" s="15" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="I713" s="20"/>
       <c r="J713" s="19"/>
@@ -39020,27 +39037,13 @@
     </row>
     <row r="714" ht="47.25" customHeight="1" spans="1:33">
       <c r="A714" s="6"/>
-      <c r="B714" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C714" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="D714" s="15">
-        <v>1200090832</v>
-      </c>
-      <c r="E714" s="16">
-        <v>10291155</v>
-      </c>
-      <c r="F714" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="G714" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H714" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="B714" s="14"/>
+      <c r="C714" s="14"/>
+      <c r="D714" s="15"/>
+      <c r="E714" s="16"/>
+      <c r="F714" s="15"/>
+      <c r="G714" s="15"/>
+      <c r="H714" s="15"/>
       <c r="I714" s="20"/>
       <c r="J714" s="19"/>
       <c r="K714" s="18"/>
@@ -39069,13 +39072,27 @@
     </row>
     <row r="715" ht="47.25" customHeight="1" spans="1:33">
       <c r="A715" s="6"/>
-      <c r="B715" s="14"/>
-      <c r="C715" s="14"/>
-      <c r="D715" s="15"/>
-      <c r="E715" s="16"/>
-      <c r="F715" s="15"/>
-      <c r="G715" s="15"/>
-      <c r="H715" s="15"/>
+      <c r="B715" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C715" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D715" s="15">
+        <v>1016508706</v>
+      </c>
+      <c r="E715" s="16">
+        <v>10348045</v>
+      </c>
+      <c r="F715" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="G715" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H715" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="I715" s="20"/>
       <c r="J715" s="19"/>
       <c r="K715" s="18"/>
@@ -39111,13 +39128,13 @@
         <v>1.25</v>
       </c>
       <c r="D716" s="15">
-        <v>1016508706</v>
+        <v>1148282927</v>
       </c>
       <c r="E716" s="16">
-        <v>10348045</v>
+        <v>10347589</v>
       </c>
       <c r="F716" s="15" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G716" s="15" t="s">
         <v>98</v>
@@ -39153,27 +39170,13 @@
     </row>
     <row r="717" ht="47.25" customHeight="1" spans="1:33">
       <c r="A717" s="6"/>
-      <c r="B717" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C717" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D717" s="15">
-        <v>1148282927</v>
-      </c>
-      <c r="E717" s="16">
-        <v>10347589</v>
-      </c>
-      <c r="F717" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="G717" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H717" s="15" t="s">
-        <v>99</v>
-      </c>
+      <c r="B717" s="14"/>
+      <c r="C717" s="14"/>
+      <c r="D717" s="15"/>
+      <c r="E717" s="16"/>
+      <c r="F717" s="15"/>
+      <c r="G717" s="15"/>
+      <c r="H717" s="15"/>
       <c r="I717" s="20"/>
       <c r="J717" s="19"/>
       <c r="K717" s="18"/>
@@ -39202,13 +39205,27 @@
     </row>
     <row r="718" ht="47.25" customHeight="1" spans="1:33">
       <c r="A718" s="6"/>
-      <c r="B718" s="14"/>
-      <c r="C718" s="14"/>
-      <c r="D718" s="15"/>
-      <c r="E718" s="16"/>
-      <c r="F718" s="15"/>
-      <c r="G718" s="15"/>
-      <c r="H718" s="15"/>
+      <c r="B718" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C718" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D718" s="15">
+        <v>1104380295</v>
+      </c>
+      <c r="E718" s="16">
+        <v>10347991</v>
+      </c>
+      <c r="F718" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="G718" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H718" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="I718" s="20"/>
       <c r="J718" s="19"/>
       <c r="K718" s="18"/>
@@ -39237,27 +39254,13 @@
     </row>
     <row r="719" ht="47.25" customHeight="1" spans="1:33">
       <c r="A719" s="6"/>
-      <c r="B719" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C719" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D719" s="15">
-        <v>1104380295</v>
-      </c>
-      <c r="E719" s="16">
-        <v>10347991</v>
-      </c>
-      <c r="F719" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="G719" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H719" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="B719" s="14"/>
+      <c r="C719" s="14"/>
+      <c r="D719" s="15"/>
+      <c r="E719" s="16"/>
+      <c r="F719" s="15"/>
+      <c r="G719" s="15"/>
+      <c r="H719" s="15"/>
       <c r="I719" s="20"/>
       <c r="J719" s="19"/>
       <c r="K719" s="18"/>
@@ -39286,13 +39289,27 @@
     </row>
     <row r="720" ht="47.25" customHeight="1" spans="1:33">
       <c r="A720" s="6"/>
-      <c r="B720" s="14"/>
-      <c r="C720" s="14"/>
-      <c r="D720" s="15"/>
-      <c r="E720" s="16"/>
-      <c r="F720" s="15"/>
-      <c r="G720" s="15"/>
-      <c r="H720" s="15"/>
+      <c r="B720" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C720" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D720" s="15">
+        <v>1115409972</v>
+      </c>
+      <c r="E720" s="16">
+        <v>10281227</v>
+      </c>
+      <c r="F720" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="G720" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H720" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="I720" s="20"/>
       <c r="J720" s="19"/>
       <c r="K720" s="18"/>
@@ -39321,27 +39338,13 @@
     </row>
     <row r="721" ht="47.25" customHeight="1" spans="1:33">
       <c r="A721" s="6"/>
-      <c r="B721" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C721" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D721" s="15">
-        <v>1115409972</v>
-      </c>
-      <c r="E721" s="16">
-        <v>10281227</v>
-      </c>
-      <c r="F721" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="G721" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H721" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="B721" s="14"/>
+      <c r="C721" s="14"/>
+      <c r="D721" s="15"/>
+      <c r="E721" s="16"/>
+      <c r="F721" s="15"/>
+      <c r="G721" s="15"/>
+      <c r="H721" s="15"/>
       <c r="I721" s="20"/>
       <c r="J721" s="19"/>
       <c r="K721" s="18"/>
@@ -39370,13 +39373,27 @@
     </row>
     <row r="722" ht="47.25" customHeight="1" spans="1:33">
       <c r="A722" s="6"/>
-      <c r="B722" s="14"/>
-      <c r="C722" s="14"/>
-      <c r="D722" s="15"/>
-      <c r="E722" s="16"/>
-      <c r="F722" s="15"/>
-      <c r="G722" s="15"/>
-      <c r="H722" s="15"/>
+      <c r="B722" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C722" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D722" s="15">
+        <v>1002894384</v>
+      </c>
+      <c r="E722" s="16">
+        <v>10347165</v>
+      </c>
+      <c r="F722" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="G722" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H722" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="I722" s="20"/>
       <c r="J722" s="19"/>
       <c r="K722" s="18"/>
@@ -39412,19 +39429,19 @@
         <v>1.25</v>
       </c>
       <c r="D723" s="15">
-        <v>1002894384</v>
+        <v>1055980976</v>
       </c>
       <c r="E723" s="16">
-        <v>10347165</v>
+        <v>10348043</v>
       </c>
       <c r="F723" s="15" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G723" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H723" s="15" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="I723" s="20"/>
       <c r="J723" s="19"/>
@@ -39461,19 +39478,19 @@
         <v>1.25</v>
       </c>
       <c r="D724" s="15">
-        <v>1055980976</v>
+        <v>1011919329</v>
       </c>
       <c r="E724" s="16">
-        <v>10348043</v>
+        <v>10347593</v>
       </c>
       <c r="F724" s="15" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G724" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H724" s="15" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="I724" s="20"/>
       <c r="J724" s="19"/>
@@ -39503,27 +39520,13 @@
     </row>
     <row r="725" ht="47.25" customHeight="1" spans="1:33">
       <c r="A725" s="6"/>
-      <c r="B725" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C725" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D725" s="15">
-        <v>1011919329</v>
-      </c>
-      <c r="E725" s="16">
-        <v>10347593</v>
-      </c>
-      <c r="F725" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="G725" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H725" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="B725" s="14"/>
+      <c r="C725" s="14"/>
+      <c r="D725" s="15"/>
+      <c r="E725" s="16"/>
+      <c r="F725" s="15"/>
+      <c r="G725" s="15"/>
+      <c r="H725" s="15"/>
       <c r="I725" s="20"/>
       <c r="J725" s="19"/>
       <c r="K725" s="18"/>
@@ -39552,13 +39555,27 @@
     </row>
     <row r="726" ht="47.25" customHeight="1" spans="1:33">
       <c r="A726" s="6"/>
-      <c r="B726" s="14"/>
-      <c r="C726" s="14"/>
-      <c r="D726" s="15"/>
-      <c r="E726" s="16"/>
-      <c r="F726" s="15"/>
-      <c r="G726" s="15"/>
-      <c r="H726" s="15"/>
+      <c r="B726" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C726" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D726" s="15">
+        <v>1021623610</v>
+      </c>
+      <c r="E726" s="16">
+        <v>10323646</v>
+      </c>
+      <c r="F726" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="G726" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H726" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="I726" s="20"/>
       <c r="J726" s="19"/>
       <c r="K726" s="18"/>
@@ -39594,19 +39611,19 @@
         <v>0.25</v>
       </c>
       <c r="D727" s="15">
-        <v>1021623610</v>
+        <v>1097830817</v>
       </c>
       <c r="E727" s="16">
-        <v>10323646</v>
+        <v>10284140</v>
       </c>
       <c r="F727" s="15" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G727" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H727" s="15" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I727" s="20"/>
       <c r="J727" s="19"/>
@@ -39640,22 +39657,22 @@
         <v>0.875</v>
       </c>
       <c r="C728" s="14">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="D728" s="15">
-        <v>1097830817</v>
+        <v>1011053278</v>
       </c>
       <c r="E728" s="16">
-        <v>10284140</v>
+        <v>10347176</v>
       </c>
       <c r="F728" s="15" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G728" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H728" s="15" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I728" s="20"/>
       <c r="J728" s="19"/>
@@ -39692,19 +39709,19 @@
         <v>1.25</v>
       </c>
       <c r="D729" s="15">
-        <v>1011053278</v>
+        <v>1004919775</v>
       </c>
       <c r="E729" s="16">
-        <v>10347176</v>
+        <v>10347219</v>
       </c>
       <c r="F729" s="15" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G729" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H729" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I729" s="20"/>
       <c r="J729" s="19"/>
@@ -39741,19 +39758,19 @@
         <v>1.25</v>
       </c>
       <c r="D730" s="15">
-        <v>1004919775</v>
+        <v>1155829737</v>
       </c>
       <c r="E730" s="16">
-        <v>10347219</v>
+        <v>10347259</v>
       </c>
       <c r="F730" s="15" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G730" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H730" s="15" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I730" s="20"/>
       <c r="J730" s="19"/>
@@ -39789,20 +39806,20 @@
       <c r="C731" s="14">
         <v>1.25</v>
       </c>
-      <c r="D731" s="15">
-        <v>1155829737</v>
+      <c r="D731" s="15" t="s">
+        <v>681</v>
       </c>
       <c r="E731" s="16">
-        <v>10347259</v>
+        <v>10347321</v>
       </c>
       <c r="F731" s="15" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G731" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H731" s="15" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="I731" s="20"/>
       <c r="J731" s="19"/>
@@ -39838,14 +39855,14 @@
       <c r="C732" s="14">
         <v>1.25</v>
       </c>
-      <c r="D732" s="15" t="s">
-        <v>681</v>
+      <c r="D732" s="15">
+        <v>1093300936</v>
       </c>
       <c r="E732" s="16">
-        <v>10347321</v>
+        <v>10347607</v>
       </c>
       <c r="F732" s="15" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G732" s="15" t="s">
         <v>26</v>
@@ -39887,20 +39904,20 @@
       <c r="C733" s="14">
         <v>1.25</v>
       </c>
-      <c r="D733" s="15">
-        <v>1093300936</v>
+      <c r="D733" s="15" t="s">
+        <v>684</v>
       </c>
       <c r="E733" s="16">
-        <v>10347607</v>
+        <v>10348000</v>
       </c>
       <c r="F733" s="15" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G733" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H733" s="15" t="s">
-        <v>27</v>
+        <v>686</v>
       </c>
       <c r="I733" s="20"/>
       <c r="J733" s="19"/>
@@ -39936,20 +39953,20 @@
       <c r="C734" s="14">
         <v>1.25</v>
       </c>
-      <c r="D734" s="15" t="s">
-        <v>684</v>
+      <c r="D734" s="15">
+        <v>1555693374</v>
       </c>
       <c r="E734" s="16">
-        <v>10348000</v>
+        <v>10347601</v>
       </c>
       <c r="F734" s="15" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G734" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H734" s="15" t="s">
-        <v>686</v>
+        <v>173</v>
       </c>
       <c r="I734" s="20"/>
       <c r="J734" s="19"/>
@@ -39986,19 +40003,19 @@
         <v>1.25</v>
       </c>
       <c r="D735" s="15">
-        <v>1555693374</v>
+        <v>1144418499</v>
       </c>
       <c r="E735" s="16">
-        <v>10347601</v>
+        <v>10347630</v>
       </c>
       <c r="F735" s="15" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G735" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H735" s="15" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="I735" s="20"/>
       <c r="J735" s="19"/>
@@ -40035,19 +40052,19 @@
         <v>1.25</v>
       </c>
       <c r="D736" s="15">
-        <v>1144418499</v>
+        <v>1013996057</v>
       </c>
       <c r="E736" s="16">
-        <v>10347630</v>
+        <v>10347993</v>
       </c>
       <c r="F736" s="15" t="s">
-        <v>688</v>
+        <v>227</v>
       </c>
       <c r="G736" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H736" s="15" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I736" s="20"/>
       <c r="J736" s="19"/>
@@ -40077,27 +40094,13 @@
     </row>
     <row r="737" ht="47.25" customHeight="1" spans="1:33">
       <c r="A737" s="6"/>
-      <c r="B737" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C737" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D737" s="15">
-        <v>1013996057</v>
-      </c>
-      <c r="E737" s="16">
-        <v>10347993</v>
-      </c>
-      <c r="F737" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G737" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H737" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="B737" s="14"/>
+      <c r="C737" s="14"/>
+      <c r="D737" s="15"/>
+      <c r="E737" s="16"/>
+      <c r="F737" s="15"/>
+      <c r="G737" s="15"/>
+      <c r="H737" s="15"/>
       <c r="I737" s="20"/>
       <c r="J737" s="19"/>
       <c r="K737" s="18"/>
@@ -40126,13 +40129,27 @@
     </row>
     <row r="738" ht="47.25" customHeight="1" spans="1:33">
       <c r="A738" s="6"/>
-      <c r="B738" s="14"/>
-      <c r="C738" s="14"/>
-      <c r="D738" s="15"/>
-      <c r="E738" s="16"/>
-      <c r="F738" s="15"/>
-      <c r="G738" s="15"/>
-      <c r="H738" s="15"/>
+      <c r="B738" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C738" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D738" s="15">
+        <v>1091324859</v>
+      </c>
+      <c r="E738" s="16">
+        <v>10347007</v>
+      </c>
+      <c r="F738" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="G738" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H738" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="I738" s="20"/>
       <c r="J738" s="19"/>
       <c r="K738" s="18"/>
@@ -40168,13 +40185,13 @@
         <v>1.25</v>
       </c>
       <c r="D739" s="15">
-        <v>1091324859</v>
+        <v>1010757990</v>
       </c>
       <c r="E739" s="16">
-        <v>10347007</v>
+        <v>10348048</v>
       </c>
       <c r="F739" s="15" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G739" s="15" t="s">
         <v>186</v>
@@ -40217,19 +40234,19 @@
         <v>1.25</v>
       </c>
       <c r="D740" s="15">
-        <v>1010757990</v>
+        <v>1270864338</v>
       </c>
       <c r="E740" s="16">
-        <v>10348048</v>
+        <v>10347997</v>
       </c>
       <c r="F740" s="15" t="s">
-        <v>690</v>
+        <v>484</v>
       </c>
       <c r="G740" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H740" s="15" t="s">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="I740" s="20"/>
       <c r="J740" s="19"/>
@@ -40265,20 +40282,20 @@
       <c r="C741" s="14">
         <v>1.25</v>
       </c>
-      <c r="D741" s="15">
-        <v>1270864338</v>
+      <c r="D741" s="15" t="s">
+        <v>691</v>
       </c>
       <c r="E741" s="16">
-        <v>10347997</v>
+        <v>10348012</v>
       </c>
       <c r="F741" s="15" t="s">
-        <v>484</v>
+        <v>692</v>
       </c>
       <c r="G741" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H741" s="15" t="s">
-        <v>311</v>
+        <v>187</v>
       </c>
       <c r="I741" s="20"/>
       <c r="J741" s="19"/>
@@ -40314,20 +40331,20 @@
       <c r="C742" s="14">
         <v>1.25</v>
       </c>
-      <c r="D742" s="15" t="s">
-        <v>691</v>
+      <c r="D742" s="15">
+        <v>1222696146</v>
       </c>
       <c r="E742" s="16">
-        <v>10348012</v>
+        <v>10347605</v>
       </c>
       <c r="F742" s="15" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G742" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H742" s="15" t="s">
-        <v>187</v>
+        <v>309</v>
       </c>
       <c r="I742" s="20"/>
       <c r="J742" s="19"/>
@@ -40364,13 +40381,13 @@
         <v>1.25</v>
       </c>
       <c r="D743" s="15">
-        <v>1222696146</v>
+        <v>1097424636</v>
       </c>
       <c r="E743" s="16">
-        <v>10347605</v>
+        <v>10347983</v>
       </c>
       <c r="F743" s="15" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G743" s="15" t="s">
         <v>186</v>
@@ -40413,19 +40430,19 @@
         <v>1.25</v>
       </c>
       <c r="D744" s="15">
-        <v>1097424636</v>
+        <v>1500087789</v>
       </c>
       <c r="E744" s="16">
-        <v>10347983</v>
+        <v>10348054</v>
       </c>
       <c r="F744" s="15" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G744" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H744" s="15" t="s">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="I744" s="20"/>
       <c r="J744" s="19"/>
@@ -40462,19 +40479,19 @@
         <v>1.25</v>
       </c>
       <c r="D745" s="15">
-        <v>1500087789</v>
+        <v>1050623708</v>
       </c>
       <c r="E745" s="16">
-        <v>10348054</v>
+        <v>10306605</v>
       </c>
       <c r="F745" s="15" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G745" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H745" s="15" t="s">
-        <v>696</v>
+        <v>187</v>
       </c>
       <c r="I745" s="20"/>
       <c r="J745" s="19"/>
@@ -40510,20 +40527,20 @@
       <c r="C746" s="14">
         <v>1.25</v>
       </c>
-      <c r="D746" s="15">
-        <v>1050623708</v>
+      <c r="D746" s="15" t="s">
+        <v>698</v>
       </c>
       <c r="E746" s="16">
-        <v>10306605</v>
+        <v>10348015</v>
       </c>
       <c r="F746" s="15" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G746" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H746" s="15" t="s">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="I746" s="20"/>
       <c r="J746" s="19"/>
@@ -40560,19 +40577,19 @@
         <v>1.25</v>
       </c>
       <c r="D747" s="15" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E747" s="16">
-        <v>10348015</v>
+        <v>10348044</v>
       </c>
       <c r="F747" s="15" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G747" s="15" t="s">
         <v>186</v>
       </c>
       <c r="H747" s="15" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="I747" s="20"/>
       <c r="J747" s="19"/>
@@ -40602,27 +40619,13 @@
     </row>
     <row r="748" ht="47.25" customHeight="1" spans="1:33">
       <c r="A748" s="6"/>
-      <c r="B748" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C748" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D748" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="E748" s="16">
-        <v>10348044</v>
-      </c>
-      <c r="F748" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="G748" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H748" s="15" t="s">
-        <v>309</v>
-      </c>
+      <c r="B748" s="14"/>
+      <c r="C748" s="14"/>
+      <c r="D748" s="15"/>
+      <c r="E748" s="16"/>
+      <c r="F748" s="15"/>
+      <c r="G748" s="15"/>
+      <c r="H748" s="15"/>
       <c r="I748" s="20"/>
       <c r="J748" s="19"/>
       <c r="K748" s="18"/>
@@ -40651,13 +40654,27 @@
     </row>
     <row r="749" ht="47.25" customHeight="1" spans="1:33">
       <c r="A749" s="6"/>
-      <c r="B749" s="14"/>
-      <c r="C749" s="14"/>
-      <c r="D749" s="15"/>
-      <c r="E749" s="16"/>
-      <c r="F749" s="15"/>
-      <c r="G749" s="15"/>
-      <c r="H749" s="15"/>
+      <c r="B749" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C749" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D749" s="15">
+        <v>1031695970</v>
+      </c>
+      <c r="E749" s="16">
+        <v>10347183</v>
+      </c>
+      <c r="F749" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="G749" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H749" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="I749" s="20"/>
       <c r="J749" s="19"/>
       <c r="K749" s="18"/>
@@ -40693,13 +40710,13 @@
         <v>1.25</v>
       </c>
       <c r="D750" s="15">
-        <v>1031695970</v>
+        <v>1096062793</v>
       </c>
       <c r="E750" s="16">
-        <v>10347183</v>
+        <v>10347754</v>
       </c>
       <c r="F750" s="15" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G750" s="15" t="s">
         <v>60</v>
@@ -40741,20 +40758,20 @@
       <c r="C751" s="14">
         <v>1.25</v>
       </c>
-      <c r="D751" s="15">
-        <v>1096062793</v>
+      <c r="D751" s="15" t="s">
+        <v>704</v>
       </c>
       <c r="E751" s="16">
-        <v>10347754</v>
+        <v>10348008</v>
       </c>
       <c r="F751" s="15" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G751" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H751" s="15" t="s">
-        <v>61</v>
+        <v>644</v>
       </c>
       <c r="I751" s="20"/>
       <c r="J751" s="19"/>
@@ -40790,20 +40807,20 @@
       <c r="C752" s="14">
         <v>1.25</v>
       </c>
-      <c r="D752" s="15" t="s">
-        <v>704</v>
+      <c r="D752" s="15">
+        <v>1558595142</v>
       </c>
       <c r="E752" s="16">
-        <v>10348008</v>
+        <v>10348055</v>
       </c>
       <c r="F752" s="15" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G752" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H752" s="15" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I752" s="20"/>
       <c r="J752" s="19"/>
@@ -40837,22 +40854,22 @@
         <v>0.875</v>
       </c>
       <c r="C753" s="14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D753" s="15">
-        <v>1558595142</v>
+        <v>1065421169</v>
       </c>
       <c r="E753" s="16">
-        <v>10348055</v>
+        <v>10331020</v>
       </c>
       <c r="F753" s="15" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G753" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H753" s="15" t="s">
-        <v>643</v>
+        <v>61</v>
       </c>
       <c r="I753" s="20"/>
       <c r="J753" s="19"/>
@@ -40886,22 +40903,22 @@
         <v>0.875</v>
       </c>
       <c r="C754" s="14">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="D754" s="15">
-        <v>1065421169</v>
+        <v>1146188508</v>
       </c>
       <c r="E754" s="16">
-        <v>10331020</v>
+        <v>10347234</v>
       </c>
       <c r="F754" s="15" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G754" s="15" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="H754" s="15" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="I754" s="20"/>
       <c r="J754" s="19"/>
@@ -40937,14 +40954,14 @@
       <c r="C755" s="14">
         <v>1.25</v>
       </c>
-      <c r="D755" s="15">
-        <v>1146188508</v>
+      <c r="D755" s="15" t="s">
+        <v>709</v>
       </c>
       <c r="E755" s="16">
-        <v>10347234</v>
+        <v>10347261</v>
       </c>
       <c r="F755" s="15" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G755" s="15" t="s">
         <v>12</v>
@@ -40986,14 +41003,14 @@
       <c r="C756" s="14">
         <v>1.25</v>
       </c>
-      <c r="D756" s="15" t="s">
-        <v>709</v>
+      <c r="D756" s="15">
+        <v>1129422164</v>
       </c>
       <c r="E756" s="16">
-        <v>10347261</v>
+        <v>10347324</v>
       </c>
       <c r="F756" s="15" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G756" s="15" t="s">
         <v>12</v>
@@ -41036,13 +41053,13 @@
         <v>1.25</v>
       </c>
       <c r="D757" s="15">
-        <v>1129422164</v>
+        <v>1505091326</v>
       </c>
       <c r="E757" s="16">
-        <v>10347324</v>
+        <v>10348053</v>
       </c>
       <c r="F757" s="15" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G757" s="15" t="s">
         <v>12</v>
@@ -41085,13 +41102,13 @@
         <v>1.25</v>
       </c>
       <c r="D758" s="15">
-        <v>1505091326</v>
+        <v>1507870093</v>
       </c>
       <c r="E758" s="16">
-        <v>10348053</v>
+        <v>10347992</v>
       </c>
       <c r="F758" s="15" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G758" s="15" t="s">
         <v>12</v>
@@ -41133,14 +41150,14 @@
       <c r="C759" s="14">
         <v>1.25</v>
       </c>
-      <c r="D759" s="15">
-        <v>1507870093</v>
+      <c r="D759" s="15" t="s">
+        <v>714</v>
       </c>
       <c r="E759" s="16">
-        <v>10347992</v>
+        <v>10348014</v>
       </c>
       <c r="F759" s="15" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G759" s="15" t="s">
         <v>12</v>
@@ -41176,27 +41193,13 @@
     </row>
     <row r="760" ht="47.25" customHeight="1" spans="1:33">
       <c r="A760" s="6"/>
-      <c r="B760" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="C760" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D760" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="E760" s="16">
-        <v>10348014</v>
-      </c>
-      <c r="F760" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="G760" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H760" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="B760" s="14"/>
+      <c r="C760" s="14"/>
+      <c r="D760" s="15"/>
+      <c r="E760" s="16"/>
+      <c r="F760" s="15"/>
+      <c r="G760" s="15"/>
+      <c r="H760" s="15"/>
       <c r="I760" s="20"/>
       <c r="J760" s="19"/>
       <c r="K760" s="18"/>
@@ -41225,13 +41228,27 @@
     </row>
     <row r="761" ht="47.25" customHeight="1" spans="1:33">
       <c r="A761" s="6"/>
-      <c r="B761" s="14"/>
-      <c r="C761" s="14"/>
-      <c r="D761" s="15"/>
-      <c r="E761" s="16"/>
-      <c r="F761" s="15"/>
-      <c r="G761" s="15"/>
-      <c r="H761" s="15"/>
+      <c r="B761" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="C761" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D761" s="15">
+        <v>1024271525</v>
+      </c>
+      <c r="E761" s="16">
+        <v>10347004</v>
+      </c>
+      <c r="F761" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="G761" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H761" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="I761" s="20"/>
       <c r="J761" s="19"/>
       <c r="K761" s="18"/>
@@ -41264,22 +41281,22 @@
         <v>0.875</v>
       </c>
       <c r="C762" s="14">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D762" s="15">
-        <v>1024271525</v>
+        <v>1274776024</v>
       </c>
       <c r="E762" s="16">
-        <v>10347004</v>
+        <v>10311872</v>
       </c>
       <c r="F762" s="15" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G762" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H762" s="15" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="I762" s="20"/>
       <c r="J762" s="19"/>
@@ -41307,7 +41324,7 @@
       <c r="AF762" s="18"/>
       <c r="AG762" s="18"/>
     </row>
-    <row r="763" ht="47.25" customHeight="1" spans="1:33">
+    <row r="763" ht="43.5" customHeight="1" spans="1:33">
       <c r="A763" s="6"/>
       <c r="B763" s="14">
         <v>0.875</v>
@@ -41316,22 +41333,24 @@
         <v>0.25</v>
       </c>
       <c r="D763" s="15">
-        <v>1274776024</v>
+        <v>1140254052</v>
       </c>
       <c r="E763" s="16">
-        <v>10311872</v>
+        <v>10344240</v>
       </c>
       <c r="F763" s="15" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G763" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H763" s="15" t="s">
+      <c r="H763" s="28" t="s">
         <v>211</v>
       </c>
       <c r="I763" s="20"/>
-      <c r="J763" s="19"/>
+      <c r="J763" s="19" t="s">
+        <v>613</v>
+      </c>
       <c r="K763" s="18"/>
       <c r="L763" s="18"/>
       <c r="M763" s="18"/>
@@ -41406,7 +41425,7 @@
         <v>10348056</v>
       </c>
       <c r="F765" s="15" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G765" s="15" t="s">
         <v>216</v>
@@ -41455,7 +41474,7 @@
         <v>10320297</v>
       </c>
       <c r="F766" s="15" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G766" s="15" t="s">
         <v>216</v>
@@ -41660,7 +41679,7 @@
         <v>10327586</v>
       </c>
       <c r="F771" s="15" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G771" s="15" t="s">
         <v>38</v>
@@ -41709,7 +41728,7 @@
         <v>10334828</v>
       </c>
       <c r="F772" s="15" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G772" s="15" t="s">
         <v>38</v>
@@ -41793,7 +41812,7 @@
         <v>10333416</v>
       </c>
       <c r="F774" s="15" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G774" s="15" t="s">
         <v>95</v>
@@ -41877,7 +41896,7 @@
         <v>10331785</v>
       </c>
       <c r="F776" s="15" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G776" s="15" t="s">
         <v>98</v>
@@ -41961,7 +41980,7 @@
         <v>10334381</v>
       </c>
       <c r="F778" s="15" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G778" s="15" t="s">
         <v>44</v>
@@ -42045,7 +42064,7 @@
         <v>10314763</v>
       </c>
       <c r="F780" s="15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G780" s="15" t="s">
         <v>49</v>
@@ -42094,7 +42113,7 @@
         <v>10332548</v>
       </c>
       <c r="F781" s="15" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G781" s="15" t="s">
         <v>49</v>
@@ -42143,7 +42162,7 @@
         <v>10335058</v>
       </c>
       <c r="F782" s="15" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G782" s="15" t="s">
         <v>49</v>
@@ -42227,7 +42246,7 @@
         <v>10312258</v>
       </c>
       <c r="F784" s="15" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G784" s="15" t="s">
         <v>186</v>
@@ -42276,7 +42295,7 @@
         <v>10332544</v>
       </c>
       <c r="F785" s="15" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G785" s="15" t="s">
         <v>186</v>
@@ -42325,7 +42344,7 @@
         <v>10334370</v>
       </c>
       <c r="F786" s="15" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G786" s="15" t="s">
         <v>186</v>
@@ -42409,7 +42428,7 @@
         <v>10332555</v>
       </c>
       <c r="F788" s="15" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G788" s="15" t="s">
         <v>12</v>
@@ -42493,7 +42512,7 @@
         <v>10280906</v>
       </c>
       <c r="F790" s="15" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G790" s="15" t="s">
         <v>32</v>
@@ -42577,7 +42596,7 @@
         <v>10334214</v>
       </c>
       <c r="F792" s="15" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G792" s="15" t="s">
         <v>216</v>
@@ -42816,7 +42835,7 @@
       <c r="AF797" s="18"/>
       <c r="AG797" s="18"/>
     </row>
-    <row r="798" ht="43.5" customHeight="1" spans="1:33">
+    <row r="798" ht="47.25" customHeight="1" spans="1:33">
       <c r="A798" s="6"/>
       <c r="B798" s="14">
         <v>0.958333333333333</v>
@@ -42825,22 +42844,24 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D798" s="15">
-        <v>1092831999</v>
+        <v>1005018561</v>
       </c>
       <c r="E798" s="16">
-        <v>10344167</v>
+        <v>10347014</v>
       </c>
       <c r="F798" s="15" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G798" s="15" t="s">
-        <v>735</v>
-      </c>
-      <c r="H798" s="15" t="s">
-        <v>735</v>
+        <v>64</v>
+      </c>
+      <c r="H798" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="I798" s="20"/>
-      <c r="J798" s="19"/>
+      <c r="J798" s="19" t="s">
+        <v>604</v>
+      </c>
       <c r="K798" s="18"/>
       <c r="L798" s="18"/>
       <c r="M798" s="18"/>
@@ -42867,13 +42888,27 @@
     </row>
     <row r="799" ht="43.5" customHeight="1" spans="1:33">
       <c r="A799" s="6"/>
-      <c r="B799" s="14"/>
-      <c r="C799" s="14"/>
-      <c r="D799" s="15"/>
-      <c r="E799" s="16"/>
-      <c r="F799" s="15"/>
-      <c r="G799" s="15"/>
-      <c r="H799" s="15"/>
+      <c r="B799" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C799" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D799" s="15">
+        <v>1092831999</v>
+      </c>
+      <c r="E799" s="16">
+        <v>10344167</v>
+      </c>
+      <c r="F799" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="G799" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="H799" s="15" t="s">
+        <v>737</v>
+      </c>
       <c r="I799" s="20"/>
       <c r="J799" s="19"/>
       <c r="K799" s="18"/>
@@ -42902,27 +42937,13 @@
     </row>
     <row r="800" ht="43.5" customHeight="1" spans="1:33">
       <c r="A800" s="6"/>
-      <c r="B800" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C800" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D800" s="15">
-        <v>1024731489</v>
-      </c>
-      <c r="E800" s="16">
-        <v>10344861</v>
-      </c>
-      <c r="F800" s="15" t="s">
-        <v>736</v>
-      </c>
-      <c r="G800" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H800" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="B800" s="14"/>
+      <c r="C800" s="14"/>
+      <c r="D800" s="15"/>
+      <c r="E800" s="16"/>
+      <c r="F800" s="15"/>
+      <c r="G800" s="15"/>
+      <c r="H800" s="15"/>
       <c r="I800" s="20"/>
       <c r="J800" s="19"/>
       <c r="K800" s="18"/>
@@ -42957,11 +42978,11 @@
       <c r="C801" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D801" s="15" t="s">
-        <v>737</v>
+      <c r="D801" s="15">
+        <v>1024731489</v>
       </c>
       <c r="E801" s="16">
-        <v>10331191</v>
+        <v>10344861</v>
       </c>
       <c r="F801" s="15" t="s">
         <v>738</v>
@@ -43006,20 +43027,20 @@
       <c r="C802" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D802" s="15">
-        <v>1280325265</v>
+      <c r="D802" s="15" t="s">
+        <v>739</v>
       </c>
       <c r="E802" s="16">
-        <v>10346556</v>
+        <v>10331191</v>
       </c>
       <c r="F802" s="15" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G802" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H802" s="15" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I802" s="20"/>
       <c r="J802" s="19"/>
@@ -43049,13 +43070,27 @@
     </row>
     <row r="803" ht="43.5" customHeight="1" spans="1:33">
       <c r="A803" s="6"/>
-      <c r="B803" s="14"/>
-      <c r="C803" s="14"/>
-      <c r="D803" s="15"/>
-      <c r="E803" s="16"/>
-      <c r="F803" s="15"/>
-      <c r="G803" s="15"/>
-      <c r="H803" s="15"/>
+      <c r="B803" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C803" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D803" s="15">
+        <v>1280325265</v>
+      </c>
+      <c r="E803" s="16">
+        <v>10346556</v>
+      </c>
+      <c r="F803" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="G803" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H803" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="I803" s="20"/>
       <c r="J803" s="19"/>
       <c r="K803" s="18"/>
@@ -43084,27 +43119,13 @@
     </row>
     <row r="804" ht="43.5" customHeight="1" spans="1:33">
       <c r="A804" s="6"/>
-      <c r="B804" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C804" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D804" s="15">
-        <v>1115054271</v>
-      </c>
-      <c r="E804" s="16">
-        <v>10346083</v>
-      </c>
-      <c r="F804" s="15" t="s">
-        <v>740</v>
-      </c>
-      <c r="G804" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H804" s="15" t="s">
-        <v>99</v>
-      </c>
+      <c r="B804" s="14"/>
+      <c r="C804" s="14"/>
+      <c r="D804" s="15"/>
+      <c r="E804" s="16"/>
+      <c r="F804" s="15"/>
+      <c r="G804" s="15"/>
+      <c r="H804" s="15"/>
       <c r="I804" s="20"/>
       <c r="J804" s="19"/>
       <c r="K804" s="18"/>
@@ -43133,13 +43154,27 @@
     </row>
     <row r="805" ht="43.5" customHeight="1" spans="1:33">
       <c r="A805" s="6"/>
-      <c r="B805" s="14"/>
-      <c r="C805" s="14"/>
-      <c r="D805" s="15"/>
-      <c r="E805" s="16"/>
-      <c r="F805" s="15"/>
-      <c r="G805" s="15"/>
-      <c r="H805" s="15"/>
+      <c r="B805" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C805" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D805" s="15">
+        <v>1115054271</v>
+      </c>
+      <c r="E805" s="16">
+        <v>10346083</v>
+      </c>
+      <c r="F805" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="G805" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H805" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="I805" s="20"/>
       <c r="J805" s="19"/>
       <c r="K805" s="18"/>
@@ -43168,27 +43203,13 @@
     </row>
     <row r="806" ht="43.5" customHeight="1" spans="1:33">
       <c r="A806" s="6"/>
-      <c r="B806" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C806" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D806" s="15">
-        <v>1285622455</v>
-      </c>
-      <c r="E806" s="16">
-        <v>10344307</v>
-      </c>
-      <c r="F806" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="G806" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H806" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="B806" s="14"/>
+      <c r="C806" s="14"/>
+      <c r="D806" s="15"/>
+      <c r="E806" s="16"/>
+      <c r="F806" s="15"/>
+      <c r="G806" s="15"/>
+      <c r="H806" s="15"/>
       <c r="I806" s="20"/>
       <c r="J806" s="19"/>
       <c r="K806" s="18"/>
@@ -43224,13 +43245,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D807" s="15">
-        <v>1021293302</v>
+        <v>1285622455</v>
       </c>
       <c r="E807" s="16">
-        <v>10344866</v>
+        <v>10344307</v>
       </c>
       <c r="F807" s="15" t="s">
-        <v>642</v>
+        <v>743</v>
       </c>
       <c r="G807" s="15" t="s">
         <v>18</v>
@@ -43273,19 +43294,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D808" s="15">
-        <v>1122706070</v>
+        <v>1021293302</v>
       </c>
       <c r="E808" s="16">
-        <v>10344863</v>
+        <v>10344866</v>
       </c>
       <c r="F808" s="15" t="s">
-        <v>742</v>
+        <v>643</v>
       </c>
       <c r="G808" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H808" s="15" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="I808" s="20"/>
       <c r="J808" s="19"/>
@@ -43322,19 +43343,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D809" s="15">
-        <v>1095617866</v>
+        <v>1122706070</v>
       </c>
       <c r="E809" s="16">
-        <v>10344856</v>
+        <v>10344863</v>
       </c>
       <c r="F809" s="15" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G809" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H809" s="15" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="I809" s="20"/>
       <c r="J809" s="19"/>
@@ -43371,13 +43392,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D810" s="15">
-        <v>1124069931</v>
+        <v>1095617866</v>
       </c>
       <c r="E810" s="16">
-        <v>10346573</v>
+        <v>10344856</v>
       </c>
       <c r="F810" s="15" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G810" s="15" t="s">
         <v>18</v>
@@ -43420,19 +43441,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D811" s="15">
-        <v>1000065945</v>
+        <v>1124069931</v>
       </c>
       <c r="E811" s="16">
-        <v>10320445</v>
+        <v>10346573</v>
       </c>
       <c r="F811" s="15" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G811" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H811" s="15" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="I811" s="20"/>
       <c r="J811" s="19"/>
@@ -43462,13 +43483,27 @@
     </row>
     <row r="812" ht="43.5" customHeight="1" spans="1:33">
       <c r="A812" s="6"/>
-      <c r="B812" s="14"/>
-      <c r="C812" s="14"/>
-      <c r="D812" s="15"/>
-      <c r="E812" s="16"/>
-      <c r="F812" s="15"/>
-      <c r="G812" s="15"/>
-      <c r="H812" s="15"/>
+      <c r="B812" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C812" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D812" s="15">
+        <v>1000065945</v>
+      </c>
+      <c r="E812" s="16">
+        <v>10320445</v>
+      </c>
+      <c r="F812" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="G812" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H812" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="I812" s="20"/>
       <c r="J812" s="19"/>
       <c r="K812" s="18"/>
@@ -43497,27 +43532,13 @@
     </row>
     <row r="813" ht="43.5" customHeight="1" spans="1:33">
       <c r="A813" s="6"/>
-      <c r="B813" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C813" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D813" s="15" t="s">
-        <v>746</v>
-      </c>
-      <c r="E813" s="16">
-        <v>10329382</v>
-      </c>
-      <c r="F813" s="15" t="s">
-        <v>747</v>
-      </c>
-      <c r="G813" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H813" s="15" t="s">
-        <v>148</v>
-      </c>
+      <c r="B813" s="14"/>
+      <c r="C813" s="14"/>
+      <c r="D813" s="15"/>
+      <c r="E813" s="16"/>
+      <c r="F813" s="15"/>
+      <c r="G813" s="15"/>
+      <c r="H813" s="15"/>
       <c r="I813" s="20"/>
       <c r="J813" s="19"/>
       <c r="K813" s="18"/>
@@ -43546,13 +43567,27 @@
     </row>
     <row r="814" ht="43.5" customHeight="1" spans="1:33">
       <c r="A814" s="6"/>
-      <c r="B814" s="14"/>
-      <c r="C814" s="14"/>
-      <c r="D814" s="15"/>
-      <c r="E814" s="16"/>
-      <c r="F814" s="15"/>
-      <c r="G814" s="15"/>
-      <c r="H814" s="15"/>
+      <c r="B814" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C814" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D814" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="E814" s="16">
+        <v>10329382</v>
+      </c>
+      <c r="F814" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="G814" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H814" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="I814" s="20"/>
       <c r="J814" s="19"/>
       <c r="K814" s="18"/>
@@ -43581,27 +43616,13 @@
     </row>
     <row r="815" ht="43.5" customHeight="1" spans="1:33">
       <c r="A815" s="6"/>
-      <c r="B815" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C815" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D815" s="15">
-        <v>1552032039</v>
-      </c>
-      <c r="E815" s="16">
-        <v>10313972</v>
-      </c>
-      <c r="F815" s="15" t="s">
-        <v>748</v>
-      </c>
-      <c r="G815" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H815" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="B815" s="14"/>
+      <c r="C815" s="14"/>
+      <c r="D815" s="15"/>
+      <c r="E815" s="16"/>
+      <c r="F815" s="15"/>
+      <c r="G815" s="15"/>
+      <c r="H815" s="15"/>
       <c r="I815" s="20"/>
       <c r="J815" s="19"/>
       <c r="K815" s="18"/>
@@ -43630,13 +43651,27 @@
     </row>
     <row r="816" ht="43.5" customHeight="1" spans="1:33">
       <c r="A816" s="6"/>
-      <c r="B816" s="14"/>
-      <c r="C816" s="14"/>
-      <c r="D816" s="15"/>
-      <c r="E816" s="16"/>
-      <c r="F816" s="15"/>
-      <c r="G816" s="15"/>
-      <c r="H816" s="15"/>
+      <c r="B816" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C816" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D816" s="15">
+        <v>1552032039</v>
+      </c>
+      <c r="E816" s="16">
+        <v>10313972</v>
+      </c>
+      <c r="F816" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="G816" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H816" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="I816" s="20"/>
       <c r="J816" s="19"/>
       <c r="K816" s="18"/>
@@ -43665,27 +43700,13 @@
     </row>
     <row r="817" ht="43.5" customHeight="1" spans="1:33">
       <c r="A817" s="6"/>
-      <c r="B817" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C817" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D817" s="15">
-        <v>1552456793</v>
-      </c>
-      <c r="E817" s="16">
-        <v>10344749</v>
-      </c>
-      <c r="F817" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="G817" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H817" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="B817" s="14"/>
+      <c r="C817" s="14"/>
+      <c r="D817" s="15"/>
+      <c r="E817" s="16"/>
+      <c r="F817" s="15"/>
+      <c r="G817" s="15"/>
+      <c r="H817" s="15"/>
       <c r="I817" s="20"/>
       <c r="J817" s="19"/>
       <c r="K817" s="18"/>
@@ -43721,19 +43742,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D818" s="15">
-        <v>1093443771</v>
+        <v>1552456793</v>
       </c>
       <c r="E818" s="16">
-        <v>10344757</v>
+        <v>10344749</v>
       </c>
       <c r="F818" s="15" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G818" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H818" s="15" t="s">
-        <v>402</v>
+        <v>54</v>
       </c>
       <c r="I818" s="20"/>
       <c r="J818" s="19"/>
@@ -43770,19 +43791,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D819" s="15">
-        <v>1095204998</v>
+        <v>1093443771</v>
       </c>
       <c r="E819" s="16">
-        <v>10344242</v>
+        <v>10344757</v>
       </c>
       <c r="F819" s="15" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G819" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H819" s="15" t="s">
-        <v>173</v>
+        <v>402</v>
       </c>
       <c r="I819" s="20"/>
       <c r="J819" s="19"/>
@@ -43819,13 +43840,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D820" s="15">
-        <v>1099884506</v>
+        <v>1095204998</v>
       </c>
       <c r="E820" s="16">
-        <v>10346886</v>
+        <v>10344242</v>
       </c>
       <c r="F820" s="15" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G820" s="15" t="s">
         <v>26</v>
@@ -43868,19 +43889,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D821" s="15">
-        <v>1100286082</v>
+        <v>1099884506</v>
       </c>
       <c r="E821" s="16">
-        <v>10346644</v>
+        <v>10346886</v>
       </c>
       <c r="F821" s="15" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G821" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H821" s="15" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I821" s="20"/>
       <c r="J821" s="19"/>
@@ -43917,19 +43938,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D822" s="15">
-        <v>1044237280</v>
+        <v>1100286082</v>
       </c>
       <c r="E822" s="16">
-        <v>10346789</v>
+        <v>10346644</v>
       </c>
       <c r="F822" s="15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G822" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H822" s="15" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="I822" s="20"/>
       <c r="J822" s="19"/>
@@ -43959,13 +43980,27 @@
     </row>
     <row r="823" ht="43.5" customHeight="1" spans="1:33">
       <c r="A823" s="6"/>
-      <c r="B823" s="14"/>
-      <c r="C823" s="14"/>
-      <c r="D823" s="15"/>
-      <c r="E823" s="16"/>
-      <c r="F823" s="15"/>
-      <c r="G823" s="15"/>
-      <c r="H823" s="15"/>
+      <c r="B823" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C823" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D823" s="15">
+        <v>1044237280</v>
+      </c>
+      <c r="E823" s="16">
+        <v>10346789</v>
+      </c>
+      <c r="F823" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="G823" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H823" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="I823" s="20"/>
       <c r="J823" s="19"/>
       <c r="K823" s="18"/>
@@ -43994,27 +44029,13 @@
     </row>
     <row r="824" ht="43.5" customHeight="1" spans="1:33">
       <c r="A824" s="6"/>
-      <c r="B824" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C824" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D824" s="15">
-        <v>1204108343</v>
-      </c>
-      <c r="E824" s="16">
-        <v>10331008</v>
-      </c>
-      <c r="F824" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="G824" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H824" s="15" t="s">
-        <v>187</v>
-      </c>
+      <c r="B824" s="14"/>
+      <c r="C824" s="14"/>
+      <c r="D824" s="15"/>
+      <c r="E824" s="16"/>
+      <c r="F824" s="15"/>
+      <c r="G824" s="15"/>
+      <c r="H824" s="15"/>
       <c r="I824" s="20"/>
       <c r="J824" s="19"/>
       <c r="K824" s="18"/>
@@ -44050,13 +44071,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D825" s="15">
-        <v>1026041099</v>
+        <v>1204108343</v>
       </c>
       <c r="E825" s="16">
-        <v>10344170</v>
+        <v>10331008</v>
       </c>
       <c r="F825" s="15" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G825" s="15" t="s">
         <v>186</v>
@@ -44105,7 +44126,7 @@
         <v>10344175</v>
       </c>
       <c r="F826" s="15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G826" s="15" t="s">
         <v>186</v>
@@ -44154,7 +44175,7 @@
         <v>10344235</v>
       </c>
       <c r="F827" s="15" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G827" s="15" t="s">
         <v>186</v>
@@ -44203,7 +44224,7 @@
         <v>10344858</v>
       </c>
       <c r="F828" s="15" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G828" s="15" t="s">
         <v>186</v>
@@ -44252,7 +44273,7 @@
         <v>10346560</v>
       </c>
       <c r="F829" s="15" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G829" s="15" t="s">
         <v>186</v>
@@ -44301,7 +44322,7 @@
         <v>10346088</v>
       </c>
       <c r="F830" s="15" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G830" s="15" t="s">
         <v>186</v>
@@ -44350,7 +44371,7 @@
         <v>10345545</v>
       </c>
       <c r="F831" s="15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G831" s="15" t="s">
         <v>186</v>
@@ -44393,13 +44414,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D832" s="15" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E832" s="16">
         <v>10331002</v>
       </c>
       <c r="F832" s="15" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G832" s="15" t="s">
         <v>186</v>
@@ -44435,15 +44456,31 @@
     </row>
     <row r="833" ht="43.5" customHeight="1" spans="1:33">
       <c r="A833" s="6"/>
-      <c r="B833" s="14"/>
-      <c r="C833" s="14"/>
-      <c r="D833" s="15"/>
-      <c r="E833" s="16"/>
-      <c r="F833" s="15"/>
-      <c r="G833" s="15"/>
-      <c r="H833" s="15"/>
+      <c r="B833" s="25">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C833" s="25">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D833" s="26">
+        <v>1505849880</v>
+      </c>
+      <c r="E833" s="16">
+        <v>10344860</v>
+      </c>
+      <c r="F833" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="G833" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="H833" s="28" t="s">
+        <v>311</v>
+      </c>
       <c r="I833" s="20"/>
-      <c r="J833" s="19"/>
+      <c r="J833" s="19" t="s">
+        <v>767</v>
+      </c>
       <c r="K833" s="18"/>
       <c r="L833" s="18"/>
       <c r="M833" s="18"/>
@@ -44470,27 +44507,13 @@
     </row>
     <row r="834" ht="43.5" customHeight="1" spans="1:33">
       <c r="A834" s="6"/>
-      <c r="B834" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C834" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D834" s="15">
-        <v>1509946439</v>
-      </c>
-      <c r="E834" s="16">
-        <v>10344252</v>
-      </c>
-      <c r="F834" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="G834" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H834" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="B834" s="14"/>
+      <c r="C834" s="14"/>
+      <c r="D834" s="15"/>
+      <c r="E834" s="16"/>
+      <c r="F834" s="15"/>
+      <c r="G834" s="15"/>
+      <c r="H834" s="15"/>
       <c r="I834" s="20"/>
       <c r="J834" s="19"/>
       <c r="K834" s="18"/>
@@ -44526,13 +44549,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D835" s="15">
-        <v>1090642201</v>
+        <v>1509946439</v>
       </c>
       <c r="E835" s="16">
-        <v>10344770</v>
+        <v>10344252</v>
       </c>
       <c r="F835" s="15" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G835" s="15" t="s">
         <v>60</v>
@@ -44574,20 +44597,20 @@
       <c r="C836" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D836" s="15" t="s">
-        <v>767</v>
+      <c r="D836" s="15">
+        <v>1090642201</v>
       </c>
       <c r="E836" s="16">
-        <v>10344214</v>
+        <v>10344770</v>
       </c>
       <c r="F836" s="15" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G836" s="15" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H836" s="15" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I836" s="20"/>
       <c r="J836" s="19"/>
@@ -44623,14 +44646,14 @@
       <c r="C837" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D837" s="15">
-        <v>1020488691</v>
+      <c r="D837" s="15" t="s">
+        <v>770</v>
       </c>
       <c r="E837" s="16">
-        <v>10346474</v>
+        <v>10344214</v>
       </c>
       <c r="F837" s="15" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G837" s="15" t="s">
         <v>12</v>
@@ -44672,14 +44695,14 @@
       <c r="C838" s="14">
         <v>0.333333333333333</v>
       </c>
-      <c r="D838" s="15" t="s">
-        <v>770</v>
+      <c r="D838" s="15">
+        <v>1020488691</v>
       </c>
       <c r="E838" s="16">
-        <v>10346285</v>
+        <v>10346474</v>
       </c>
       <c r="F838" s="15" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G838" s="15" t="s">
         <v>12</v>
@@ -44715,13 +44738,27 @@
     </row>
     <row r="839" ht="43.5" customHeight="1" spans="1:33">
       <c r="A839" s="6"/>
-      <c r="B839" s="14"/>
-      <c r="C839" s="14"/>
-      <c r="D839" s="15"/>
-      <c r="E839" s="16"/>
-      <c r="F839" s="15"/>
-      <c r="G839" s="15"/>
-      <c r="H839" s="15"/>
+      <c r="B839" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C839" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D839" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="E839" s="16">
+        <v>10346285</v>
+      </c>
+      <c r="F839" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="G839" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H839" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I839" s="20"/>
       <c r="J839" s="19"/>
       <c r="K839" s="18"/>
@@ -44750,27 +44787,13 @@
     </row>
     <row r="840" ht="43.5" customHeight="1" spans="1:33">
       <c r="A840" s="6"/>
-      <c r="B840" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C840" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D840" s="15">
-        <v>1140254052</v>
-      </c>
-      <c r="E840" s="16">
-        <v>10344240</v>
-      </c>
-      <c r="F840" s="15" t="s">
-        <v>772</v>
-      </c>
-      <c r="G840" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H840" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="B840" s="14"/>
+      <c r="C840" s="14"/>
+      <c r="D840" s="15"/>
+      <c r="E840" s="16"/>
+      <c r="F840" s="15"/>
+      <c r="G840" s="15"/>
+      <c r="H840" s="15"/>
       <c r="I840" s="20"/>
       <c r="J840" s="19"/>
       <c r="K840" s="18"/>
@@ -44812,7 +44835,7 @@
         <v>10346555</v>
       </c>
       <c r="F841" s="15" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G841" s="15" t="s">
         <v>32</v>
@@ -44896,7 +44919,7 @@
         <v>10344261</v>
       </c>
       <c r="F843" s="15" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G843" s="15" t="s">
         <v>216</v>
@@ -44967,13 +44990,13 @@
     </row>
     <row r="845" ht="15" customHeight="1" spans="1:33">
       <c r="A845" s="6"/>
-      <c r="B845" s="28"/>
-      <c r="C845" s="28"/>
-      <c r="D845" s="29"/>
-      <c r="E845" s="30"/>
-      <c r="F845" s="29"/>
-      <c r="G845" s="29"/>
-      <c r="H845" s="29"/>
+      <c r="B845" s="29"/>
+      <c r="C845" s="29"/>
+      <c r="D845" s="30"/>
+      <c r="E845" s="31"/>
+      <c r="F845" s="30"/>
+      <c r="G845" s="30"/>
+      <c r="H845" s="30"/>
       <c r="I845" s="20"/>
       <c r="J845" s="19"/>
       <c r="K845" s="18"/>
